--- a/SpaOnline/ModeloDominio/Reservas - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Reservas - Muestreo Datos.xlsx
@@ -1,27 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039ADD6F-D6FF-4573-B75B-F7C4F80F6459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D334DCB-03D0-486E-9787-B7D90DC3920C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
     <sheet name="Objetos de dominio" sheetId="2" r:id="rId2"/>
     <sheet name="Cliente" sheetId="7" r:id="rId3"/>
-    <sheet name="CitaReservaServicio" sheetId="8" r:id="rId4"/>
-    <sheet name="CitaReserva" sheetId="5" r:id="rId5"/>
+    <sheet name="ReservaServicio" sheetId="8" r:id="rId4"/>
+    <sheet name="Reserva" sheetId="5" r:id="rId5"/>
     <sheet name="Consentimiento" sheetId="9" r:id="rId6"/>
-    <sheet name="Sucursales" sheetId="3" r:id="rId7"/>
+    <sheet name="Sucursal" sheetId="3" r:id="rId7"/>
     <sheet name="Servicios" sheetId="6" r:id="rId8"/>
+    <sheet name="Eventos" sheetId="10" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -63,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -83,9 +87,6 @@
     <t>Combinacion única</t>
   </si>
   <si>
-    <t>CitaReserva</t>
-  </si>
-  <si>
     <t>Sucursales</t>
   </si>
   <si>
@@ -104,60 +105,21 @@
     <t>Referenciado</t>
   </si>
   <si>
-    <t>País</t>
-  </si>
-  <si>
-    <t>Departamento</t>
-  </si>
-  <si>
     <t>Ciudad</t>
   </si>
   <si>
     <t>Sucursal</t>
   </si>
   <si>
-    <t>Ubicación</t>
-  </si>
-  <si>
     <t>Combinación única</t>
   </si>
   <si>
-    <t>Colombia</t>
-  </si>
-  <si>
-    <t>Antioquia</t>
-  </si>
-  <si>
-    <t>Medellín</t>
-  </si>
-  <si>
-    <t>El poblado</t>
-  </si>
-  <si>
     <t>CL 10 43 A 29</t>
   </si>
   <si>
-    <t>Cundinamarca</t>
-  </si>
-  <si>
-    <t>Bogotá</t>
-  </si>
-  <si>
-    <t>Chapinero</t>
-  </si>
-  <si>
     <t>CL 63 9 36</t>
   </si>
   <si>
-    <t>Atlántico</t>
-  </si>
-  <si>
-    <t>Cartagena</t>
-  </si>
-  <si>
-    <t>Bocagrande</t>
-  </si>
-  <si>
     <t>CR 2 5 39</t>
   </si>
   <si>
@@ -173,15 +135,6 @@
     <t>Nombre Servicio</t>
   </si>
   <si>
-    <t>Estado de la reserva</t>
-  </si>
-  <si>
-    <t>Reservado</t>
-  </si>
-  <si>
-    <t>No Reservado</t>
-  </si>
-  <si>
     <t>Hora</t>
   </si>
   <si>
@@ -209,15 +162,9 @@
     <t>Cliente</t>
   </si>
   <si>
-    <t>CitaReservaServicio</t>
-  </si>
-  <si>
     <t>Consentimiento</t>
   </si>
   <si>
-    <t>Objeto de dominio que contiene la informacion de los clientes</t>
-  </si>
-  <si>
     <t>Objeto de dominio que contiene la reserva del servicio disponible</t>
   </si>
   <si>
@@ -236,36 +183,24 @@
     <t>Correo</t>
   </si>
   <si>
-    <t>Dirección</t>
-  </si>
-  <si>
     <t>Martina Corrales</t>
   </si>
   <si>
     <t>martina.corrales@gmail.com</t>
   </si>
   <si>
-    <t>Vereda Pontezuela</t>
-  </si>
-  <si>
     <t>Ramiro Ramirez</t>
   </si>
   <si>
     <t>ramiro.ramirez@outlook.com</t>
   </si>
   <si>
-    <t>CR 49 48 02</t>
-  </si>
-  <si>
     <t>Lucrecia Gomez</t>
   </si>
   <si>
     <t>lucrecia.gomez@hotmail.com</t>
   </si>
   <si>
-    <t>CL 98 75 23</t>
-  </si>
-  <si>
     <t>Autorización</t>
   </si>
   <si>
@@ -275,13 +210,115 @@
     <t>NO</t>
   </si>
   <si>
-    <t>Estado de la Reserva</t>
-  </si>
-  <si>
     <t>Documento de Identificación</t>
   </si>
   <si>
     <t>Numero Telefonico</t>
+  </si>
+  <si>
+    <t>Reserva</t>
+  </si>
+  <si>
+    <t>ReservaServicio</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Direccion</t>
+  </si>
+  <si>
+    <t>Correo Electronico</t>
+  </si>
+  <si>
+    <t>Telefono</t>
+  </si>
+  <si>
+    <t>Sucursal Rionegro</t>
+  </si>
+  <si>
+    <t>SucursalRionegro@gmail.com</t>
+  </si>
+  <si>
+    <t>Sucursal Marinilla</t>
+  </si>
+  <si>
+    <t>SucursalMarinilla@gmail.com</t>
+  </si>
+  <si>
+    <t>Sucursal El Poblado</t>
+  </si>
+  <si>
+    <t>SucursalPoblado@gmail.com</t>
+  </si>
+  <si>
+    <t>Rionegro-Antioquia-Colombia</t>
+  </si>
+  <si>
+    <t>Rionegro-Antioquia-Colombia-CL 10 43 A 29</t>
+  </si>
+  <si>
+    <t>SucursalRionegro@gmail.com-54323243</t>
+  </si>
+  <si>
+    <t>Marinilla-Antioquia-Colombia</t>
+  </si>
+  <si>
+    <t>Marinilla-Antioquia-Colombia-CL 63 9 36</t>
+  </si>
+  <si>
+    <t>SucursalMarinilla@gmail.com-3214321</t>
+  </si>
+  <si>
+    <t>Medellin-Antioquia-Colombia</t>
+  </si>
+  <si>
+    <t>Medellin-Antioquia-Colombia-CR 2 5 39</t>
+  </si>
+  <si>
+    <t>SucursalPoblado@gmail.com-5632421</t>
+  </si>
+  <si>
+    <t>TipoServicio</t>
+  </si>
+  <si>
+    <t>Precio</t>
+  </si>
+  <si>
+    <t>Pedicura Spa</t>
+  </si>
+  <si>
+    <t>Tratamiento Facial Antiedad</t>
+  </si>
+  <si>
+    <t>Masaje Relajante</t>
+  </si>
+  <si>
+    <t>Eventos</t>
+  </si>
+  <si>
+    <t>CentroEventos</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion basica de los clientes del spa</t>
+  </si>
+  <si>
+    <t>Pedicura Spa-100000</t>
+  </si>
+  <si>
+    <t>Tratamiento Facial Antiedad-120000</t>
+  </si>
+  <si>
+    <t>Masaje Relajante-100000</t>
+  </si>
+  <si>
+    <t>Martina Corrales-1234567890</t>
+  </si>
+  <si>
+    <t>Ramiro Ramirez-987654321</t>
+  </si>
+  <si>
+    <t>Lucrecia Gomez-39789321</t>
   </si>
 </sst>
 </file>
@@ -313,7 +350,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -329,6 +366,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="65"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -361,7 +404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -391,6 +434,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -419,17 +468,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>39169</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>114927</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>458221</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>124427</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Imagen 3">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A02D6240-A0DA-A164-F339-511E4235C3C2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA94C2CC-EF84-ED2F-6FE7-869BE20E7130}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -446,7 +495,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7659169" cy="4496427"/>
+          <a:ext cx="7316221" cy="4315427"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -456,6 +505,46 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Modelo de Dominio Anemico"/>
+      <sheetName val="Objetos de dominio"/>
+      <sheetName val="TipoServicio"/>
+      <sheetName val="Servicio"/>
+      <sheetName val="Oferta"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>Pedicura y Manicura</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="C3" t="str">
+            <v>Tratamiento Facial</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="C4" t="str">
+            <v>Masaje</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
@@ -793,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,10 +898,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -820,7 +909,7 @@
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -834,91 +923,103 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>77</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>31</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>6</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="9" t="s">
-        <v>9</v>
-      </c>
       <c r="C7" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>54</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -935,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE5137F-269A-4BBF-8793-E8FCF1AB8F55}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,39 +1049,35 @@
     <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="82.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1">
         <v>1234567890</v>
@@ -989,22 +1086,19 @@
         <v>3116987523</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="5" t="str">
-        <f>+C2&amp;"-"&amp;B2&amp;"-"&amp;D2&amp;"-"&amp;E2&amp;"-"&amp;F2</f>
-        <v>1234567890-Martina Corrales-3116987523-martina.corrales@gmail.com-Vereda Pontezuela</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="F2" s="5" t="str">
+        <f>+B2&amp;"-"&amp;C2</f>
+        <v>Martina Corrales-1234567890</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1">
         <v>987654321</v>
@@ -1013,22 +1107,19 @@
         <v>3639874520</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" s="5" t="str">
-        <f t="shared" ref="G3:G4" si="0">+C3&amp;"-"&amp;B3&amp;"-"&amp;D3&amp;"-"&amp;E3&amp;"-"&amp;F3</f>
-        <v>987654321-Ramiro Ramirez-3639874520-ramiro.ramirez@outlook.com-CR 49 48 02</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="F3" s="5" t="str">
+        <f t="shared" ref="F3:F4" si="0">+B3&amp;"-"&amp;C3</f>
+        <v>Ramiro Ramirez-987654321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1">
         <v>39789321</v>
@@ -1037,21 +1128,18 @@
         <v>3793175677</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="G4" s="5" t="str">
+        <v>43</v>
+      </c>
+      <c r="F4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>39789321-Lucrecia Gomez-3793175677-lucrecia.gomez@hotmail.com-CL 98 75 23</v>
+        <v>Lucrecia Gomez-39789321</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{C3344FFB-5162-468B-8BBC-B6332951149F}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{7F2F33AC-D77D-48E7-8D80-1221B412A616}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{76E88723-9F05-4676-BECF-5F3828D71ED8}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{7F2F33AC-D77D-48E7-8D80-1221B412A616}"/>
+    <hyperlink ref="E2" r:id="rId3" xr:uid="{C3344FFB-5162-468B-8BBC-B6332951149F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1059,77 +1147,63 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820898BB-1170-416A-9209-732011E756FB}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D2" s="5" t="str">
-        <f>+B2&amp;"-"&amp;C2</f>
-        <v>Reservado-Limpieza facial</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="C2" s="5" t="str">
+        <f>+B2</f>
+        <v>Pedicura Spa-100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D3" s="5" t="str">
-        <f t="shared" ref="D3:D4" si="0">+B3&amp;"-"&amp;C3</f>
-        <v>No Reservado-Masaje completo</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f t="shared" ref="C3:C4" si="0">+B3</f>
+        <v>Tratamiento Facial Antiedad-120000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D4" s="5" t="str">
+        <v>80</v>
+      </c>
+      <c r="C4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Reservado-Chocolaterapia</v>
+        <v>Masaje Relajante-100000</v>
       </c>
     </row>
   </sheetData>
@@ -1139,103 +1213,116 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="58.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>41</v>
+      <c r="B2" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>27</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="5" t="str">
-        <f>+B2&amp;"-"&amp;C2&amp;"-"&amp;D2&amp;"-"&amp;E2</f>
-        <v>16/03/2024-3:00pm-Reservado-El poblado</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="5" t="str">
+        <f>+C2&amp;"-"&amp;D2&amp;"-"&amp;E2</f>
+        <v>16/03/2024-3:00pm-Pedicura Spa-100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>42</v>
+      <c r="B3" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="5" t="str">
-        <f t="shared" ref="F3:F4" si="0">+B3&amp;"-"&amp;C3&amp;"-"&amp;D3&amp;"-"&amp;E3</f>
-        <v>28/04/2024-10:00am-No Reservado-Chapinero</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="5" t="str">
+        <f>+C3&amp;"-"&amp;D3&amp;"-"&amp;E3</f>
+        <v>28/04/2024-10:00am-Tratamiento Facial Antiedad-120000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>43</v>
+      <c r="B4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>05/05/2024-12:30pm-Reservado-Bocagrande</v>
+        <v>80</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="5" t="str">
+        <f>+C4&amp;"-"&amp;D4&amp;"-"&amp;E4</f>
+        <v>05/05/2024-12:30pm-Masaje Relajante-100000</v>
       </c>
     </row>
   </sheetData>
@@ -1248,7 +1335,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1265,13 +1352,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -1282,13 +1369,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="C2" s="1">
         <v>1234567890</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>+B2</f>
@@ -1300,13 +1387,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1">
         <v>987654321</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>+B3</f>
@@ -1318,13 +1405,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C4" s="1">
         <v>39789321</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>+B4</f>
@@ -1338,134 +1425,251 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27757F1-FD83-4C60-A977-3E4A8F875641}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G2" sqref="G2:G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="51.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="37.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" s="15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>20</v>
+        <v>55</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="5" t="str">
-        <f>+B2&amp;"-"&amp;C2&amp;"-"&amp;D2&amp;"-"&amp;E2&amp;"-"&amp;F2</f>
-        <v>Colombia-Antioquia-Medellín-El poblado-CL 10 43 A 29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="1">
+        <v>54323243</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>57</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>64</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" s="5" t="str">
-        <f t="shared" ref="G3:G4" si="0">+B3&amp;"-"&amp;C3&amp;"-"&amp;D3&amp;"-"&amp;E3&amp;"-"&amp;F3</f>
-        <v>Colombia-Cundinamarca-Bogotá-Chapinero-CL 63 9 36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="1">
+        <v>3214321</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>67</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Colombia-Atlántico-Cartagena-Bocagrande-CR 2 5 39</v>
+        <v>17</v>
+      </c>
+      <c r="E4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5632421</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{53047D00-5661-4559-8A96-17D1361028AF}"/>
+    <hyperlink ref="C3:C4" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{0EF56730-61DC-4D5E-BB8D-6E584887B9C8}"/>
+    <hyperlink ref="E2" r:id="rId1" xr:uid="{AB062AC7-CCE4-4F3A-9354-82DD00A76D13}"/>
+    <hyperlink ref="E3:E4" r:id="rId2" display="SucursalRionegr@gmail.com" xr:uid="{2D15B5A4-7D37-4C6F-A782-AFDB891C23BF}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{DBC5DF50-B86E-45EA-9B45-F21A7C714AD8}"/>
+    <hyperlink ref="E4" r:id="rId4" xr:uid="{1D018461-DEC3-4C6E-B37D-43FBC1543C7A}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C51225-C664-4835-BBA4-220D6C13A752}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C2" s="10" t="str">
+        <f>[1]TipoServicio!C2</f>
+        <v>Pedicura y Manicura</v>
+      </c>
+      <c r="D2" s="18">
+        <v>100000</v>
+      </c>
+      <c r="E2" s="5" t="str">
+        <f>B2&amp;"-"&amp;D2</f>
+        <v>Pedicura Spa-100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="10" t="str">
+        <f>[1]TipoServicio!C3</f>
+        <v>Tratamiento Facial</v>
+      </c>
+      <c r="D3" s="18">
+        <v>120000</v>
+      </c>
+      <c r="E3" s="5" t="str">
+        <f>B3&amp;"-"&amp;D3</f>
+        <v>Tratamiento Facial Antiedad-120000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="10" t="str">
+        <f>[1]TipoServicio!C4</f>
+        <v>Masaje</v>
+      </c>
+      <c r="D4" s="18">
+        <v>100000</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f>B4&amp;"-"&amp;D4</f>
+        <v>Masaje Relajante-100000</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" location="TipoServicio!D2" display="TipoServicio!D2" xr:uid="{FD493911-2FBD-4DED-9041-60A6E532829C}"/>
+    <hyperlink ref="C3:C4" location="TipoServicio!D2" display="TipoServicio!D2" xr:uid="{849735E3-74E0-4AB1-9BD7-D4589084B526}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA502B3-38DC-4823-9C73-6CD6DE195FB2}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1475,7 +1679,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>5</v>
@@ -1486,7 +1690,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>+B2</f>
@@ -1498,7 +1702,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5" t="str">
         <f t="shared" ref="C3:C4" si="0">+B3</f>
@@ -1510,7 +1714,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" si="0"/>

--- a/SpaOnline/ModeloDominio/Reservas - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Reservas - Muestreo Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D334DCB-03D0-486E-9787-B7D90DC3920C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{2D334DCB-03D0-486E-9787-B7D90DC3920C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{730EDF0F-68C9-4A70-AB45-EA488D98A8F5}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="4" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="7" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -21,10 +21,11 @@
     <sheet name="Consentimiento" sheetId="9" r:id="rId6"/>
     <sheet name="Sucursal" sheetId="3" r:id="rId7"/>
     <sheet name="Servicios" sheetId="6" r:id="rId8"/>
-    <sheet name="Eventos" sheetId="10" r:id="rId9"/>
+    <sheet name="Agenda" sheetId="11" r:id="rId9"/>
+    <sheet name="Eventos" sheetId="10" r:id="rId10"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -135,9 +136,6 @@
     <t>Nombre Servicio</t>
   </si>
   <si>
-    <t>Hora</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
@@ -319,13 +317,25 @@
   </si>
   <si>
     <t>Lucrecia Gomez-39789321</t>
+  </si>
+  <si>
+    <t>Agenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objeto de dominio que contiene la informacion de los horarios en los cuales se puede agendar una cita </t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>HoraLaboral</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +355,20 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -404,7 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -440,6 +464,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -468,17 +496,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>458221</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>124427</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>248854</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38743</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA94C2CC-EF84-ED2F-6FE7-869BE20E7130}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50C8930D-FF7D-7154-0A55-1ED52734DDFB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -495,7 +523,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="7316221" cy="4315427"/>
+          <a:ext cx="8630854" cy="4610743"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -521,8 +549,8 @@
       <sheetName val="Oferta"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="C2" t="str">
@@ -540,8 +568,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -882,7 +910,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
@@ -896,12 +924,78 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA502B3-38DC-4823-9C73-6CD6DE195FB2}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="5" t="str">
+        <f>+B2</f>
+        <v>Limpieza facial</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="5" t="str">
+        <f t="shared" ref="C3:C4" si="0">+B3</f>
+        <v>Masaje completo</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>Chocolaterapia</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -912,7 +1006,7 @@
     <col min="4" max="4" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
@@ -923,111 +1017,131 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>32</v>
+        <v>83</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>84</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>31</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B5" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>8</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>76</v>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C11" s="19" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A6" r:id="rId1" xr:uid="{8EFF29E0-6B07-4522-918B-B10FC37D7D6D}"/>
-    <hyperlink ref="A7" r:id="rId2" xr:uid="{D85578A5-01DB-4CE4-84EB-E6E7CC86B3E6}"/>
-    <hyperlink ref="C6" location="Sucursales!A1" display="Referenciado" xr:uid="{C2C27A26-9F26-4F3C-9EC9-DC99886623EE}"/>
-    <hyperlink ref="C7" location="Servicios!A1" display="Referenciado" xr:uid="{B7D4804B-6051-4D79-AD41-2B1639254A0D}"/>
+    <hyperlink ref="A7" r:id="rId1" xr:uid="{8EFF29E0-6B07-4522-918B-B10FC37D7D6D}"/>
+    <hyperlink ref="A8" r:id="rId2" xr:uid="{D85578A5-01DB-4CE4-84EB-E6E7CC86B3E6}"/>
+    <hyperlink ref="C7" location="Sucursales!A1" display="Referenciado" xr:uid="{C2C27A26-9F26-4F3C-9EC9-DC99886623EE}"/>
+    <hyperlink ref="C8" location="Servicios!A1" display="Referenciado" xr:uid="{B7D4804B-6051-4D79-AD41-2B1639254A0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId3"/>
@@ -1039,7 +1153,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F4"/>
+      <selection sqref="A1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1057,16 +1171,16 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>36</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>37</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>5</v>
@@ -1077,7 +1191,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1">
         <v>1234567890</v>
@@ -1086,7 +1200,7 @@
         <v>3116987523</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F2" s="5" t="str">
         <f>+B2&amp;"-"&amp;C2</f>
@@ -1098,7 +1212,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1">
         <v>987654321</v>
@@ -1107,7 +1221,7 @@
         <v>3639874520</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F3" s="5" t="str">
         <f t="shared" ref="F3:F4" si="0">+B3&amp;"-"&amp;C3</f>
@@ -1119,7 +1233,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1">
         <v>39789321</v>
@@ -1128,7 +1242,7 @@
         <v>3793175677</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1150,7 +1264,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="C4" sqref="A1:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1175,7 +1289,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>+B2</f>
@@ -1187,7 +1301,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C3" s="5" t="str">
         <f t="shared" ref="C3:C4" si="0">+B3</f>
@@ -1199,7 +1313,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1213,9 +1327,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1223,109 +1337,103 @@
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="58.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="F1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>27</v>
+        <v>80</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>Agenda!E4</f>
+        <v>3:00pm-16/03/2024</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="G2" s="5" t="str">
-        <f>+C2&amp;"-"&amp;D2&amp;"-"&amp;E2</f>
-        <v>16/03/2024-3:00pm-Pedicura Spa-100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="F2" s="20" t="str">
+        <f>+C2&amp;"-"&amp;"-"&amp;D2&amp;" "&amp;B2</f>
+        <v>3:00pm-16/03/2024--Pedicura Spa-100000 Martina Corrales-1234567890</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>28</v>
+        <v>81</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>Agenda!E5</f>
+        <v>10:00am-28/04/2024</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="G3" s="5" t="str">
-        <f>+C3&amp;"-"&amp;D3&amp;"-"&amp;E3</f>
-        <v>28/04/2024-10:00am-Tratamiento Facial Antiedad-120000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="F3" s="20" t="str">
+        <f t="shared" ref="F3:F4" si="0">+C3&amp;"-"&amp;"-"&amp;D3&amp;" "&amp;B3</f>
+        <v>10:00am-28/04/2024--Tratamiento Facial Antiedad-120000 Ramiro Ramirez-987654321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>29</v>
+        <v>82</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>Agenda!E6</f>
+        <v>12:30pm-05/05/2024</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G4" s="5" t="str">
-        <f>+C4&amp;"-"&amp;D4&amp;"-"&amp;E4</f>
-        <v>05/05/2024-12:30pm-Masaje Relajante-100000</v>
-      </c>
+        <v>67</v>
+      </c>
+      <c r="F4" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>12:30pm-05/05/2024--Masaje Relajante-100000 Lucrecia Gomez-39789321</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="19"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1335,7 +1443,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E4" sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1352,13 +1460,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -1369,13 +1477,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2" s="1">
         <v>1234567890</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>+B2</f>
@@ -1387,13 +1495,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C3" s="1">
         <v>987654321</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>+B3</f>
@@ -1405,13 +1513,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" s="1">
         <v>39789321</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>+B4</f>
@@ -1448,19 +1556,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>53</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>54</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>14</v>
@@ -1474,25 +1582,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="1">
         <v>54323243</v>
       </c>
       <c r="G2" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="17" t="s">
         <v>62</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1500,25 +1608,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F3" s="1">
         <v>3214321</v>
       </c>
       <c r="G3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1526,25 +1634,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4" s="1">
         <v>5632421</v>
       </c>
       <c r="G4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" s="17" t="s">
         <v>68</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -1564,8 +1672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C51225-C664-4835-BBA4-220D6C13A752}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="A1:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1585,10 +1693,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -1599,7 +1707,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C2" s="10" t="str">
         <f>[1]TipoServicio!C2</f>
@@ -1618,7 +1726,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C3" s="10" t="str">
         <f>[1]TipoServicio!C3</f>
@@ -1637,7 +1745,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C4" s="10" t="str">
         <f>[1]TipoServicio!C4</f>
@@ -1661,64 +1769,78 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA502B3-38DC-4823-9C73-6CD6DE195FB2}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E499858D-1D47-40BF-8F64-07609D992B89}">
+  <dimension ref="B3:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B3" sqref="B3:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+      <c r="C3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5" t="str">
-        <f>+B2</f>
-        <v>Limpieza facial</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+      <c r="C4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="5" t="str">
+        <f>D4&amp;"-"&amp;C4</f>
+        <v>3:00pm-16/03/2024</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f t="shared" ref="C3:C4" si="0">+B3</f>
-        <v>Masaje completo</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+      <c r="C5" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="5" t="str">
+        <f t="shared" ref="E5:E6" si="0">D5&amp;"-"&amp;C5</f>
+        <v>10:00am-28/04/2024</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5" t="str">
+      <c r="C6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Chocolaterapia</v>
+        <v>12:30pm-05/05/2024</v>
       </c>
     </row>
   </sheetData>

--- a/SpaOnline/ModeloDominio/Reservas - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Reservas - Muestreo Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="62" documentId="13_ncr:1_{2D334DCB-03D0-486E-9787-B7D90DC3920C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{730EDF0F-68C9-4A70-AB45-EA488D98A8F5}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182ADDFB-6109-41A6-911B-0E4F464A46E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="7" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="9" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -26,6 +26,7 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -124,18 +125,6 @@
     <t>CR 2 5 39</t>
   </si>
   <si>
-    <t>Limpieza facial</t>
-  </si>
-  <si>
-    <t>Masaje completo</t>
-  </si>
-  <si>
-    <t>Chocolaterapia</t>
-  </si>
-  <si>
-    <t>Nombre Servicio</t>
-  </si>
-  <si>
     <t>Fecha</t>
   </si>
   <si>
@@ -325,10 +314,28 @@
     <t xml:space="preserve">Objeto de dominio que contiene la informacion de los horarios en los cuales se puede agendar una cita </t>
   </si>
   <si>
-    <t>s</t>
-  </si>
-  <si>
     <t>HoraLaboral</t>
+  </si>
+  <si>
+    <t>TipoIdentificacion</t>
+  </si>
+  <si>
+    <t>Notificado</t>
+  </si>
+  <si>
+    <t>OfertaFacial</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>Reserva - 1</t>
+  </si>
+  <si>
+    <t>Factura 1</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion de los eventos que realiza el Spa</t>
   </si>
 </sst>
 </file>
@@ -570,6 +577,46 @@
       </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Modelo de Dominio Anemico"/>
+      <sheetName val="Objetos de dominio"/>
+      <sheetName val="Cliente"/>
+      <sheetName val="TipoIdentificacion"/>
+      <sheetName val="Notificacion"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3">
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>CC</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Pasaporte</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>TI</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -926,63 +973,75 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA502B3-38DC-4823-9C73-6CD6DE195FB2}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="5" t="str">
-        <f>+B2</f>
-        <v>Limpieza facial</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="5" t="str">
+        <f>B2</f>
+        <v>OfertaFacial</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f t="shared" ref="C3:C4" si="0">+B3</f>
-        <v>Masaje completo</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f t="shared" ref="D3:D4" si="0">B3</f>
+        <v>Reserva - 1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="5" t="str">
+        <v>87</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="D4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>Chocolaterapia</v>
+        <v>Factura 1</v>
       </c>
     </row>
   </sheetData>
@@ -995,7 +1054,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,69 +1076,69 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E2" s="19"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -1088,7 +1147,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1116,25 +1175,25 @@
         <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="19" t="s">
-        <v>85</v>
-      </c>
+      <c r="C11" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1150,110 +1209,125 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE5137F-269A-4BBF-8793-E8FCF1AB8F55}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C2" s="1">
+        <v>33</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>+[2]TipoIdentificacion!B7</f>
+        <v>CC</v>
+      </c>
+      <c r="D2" s="1">
         <v>1234567890</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E2" s="1">
         <v>3116987523</v>
       </c>
-      <c r="E2" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="5" t="str">
-        <f>+B2&amp;"-"&amp;C2</f>
+      <c r="F2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="5" t="str">
+        <f>+B2&amp;"-"&amp;D2</f>
         <v>Martina Corrales-1234567890</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C3" s="1">
+        <v>35</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>+[2]TipoIdentificacion!B8</f>
+        <v>Pasaporte</v>
+      </c>
+      <c r="D3" s="1">
         <v>987654321</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>3639874520</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="5" t="str">
-        <f t="shared" ref="F3:F4" si="0">+B3&amp;"-"&amp;C3</f>
+      <c r="F3" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="5" t="str">
+        <f t="shared" ref="G3:G4" si="0">+B3&amp;"-"&amp;D3</f>
         <v>Ramiro Ramirez-987654321</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="1">
+        <v>37</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>+[2]TipoIdentificacion!B9</f>
+        <v>TI</v>
+      </c>
+      <c r="D4" s="1">
         <v>39789321</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>3793175677</v>
       </c>
-      <c r="E4" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="5" t="str">
+      <c r="F4" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>Lucrecia Gomez-39789321</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{7F2F33AC-D77D-48E7-8D80-1221B412A616}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{76E88723-9F05-4676-BECF-5F3828D71ED8}"/>
-    <hyperlink ref="E2" r:id="rId3" xr:uid="{C3344FFB-5162-468B-8BBC-B6332951149F}"/>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{A1D5EE9E-3A51-4A5D-A756-C8E492EAB392}"/>
+    <hyperlink ref="F3" r:id="rId2" xr:uid="{515D0BDE-007D-4A5C-9DF2-C1142F9E6660}"/>
+    <hyperlink ref="F2" r:id="rId3" xr:uid="{D6E8FBE3-7A8D-438E-8A45-B860C60B9BC9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1289,7 +1363,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C2" s="5" t="str">
         <f>+B2</f>
@@ -1301,7 +1375,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C3" s="5" t="str">
         <f t="shared" ref="C3:C4" si="0">+B3</f>
@@ -1313,7 +1387,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1348,13 +1422,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>13</v>
@@ -1368,17 +1442,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>Agenda!E4</f>
         <v>3:00pm-16/03/2024</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F2" s="20" t="str">
         <f>+C2&amp;"-"&amp;"-"&amp;D2&amp;" "&amp;B2</f>
@@ -1390,17 +1464,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>Agenda!E5</f>
         <v>10:00am-28/04/2024</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F3" s="20" t="str">
         <f t="shared" ref="F3:F4" si="0">+C3&amp;"-"&amp;"-"&amp;D3&amp;" "&amp;B3</f>
@@ -1412,17 +1486,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>Agenda!E6</f>
         <v>12:30pm-05/05/2024</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F4" s="20" t="str">
         <f t="shared" si="0"/>
@@ -1460,13 +1534,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -1477,13 +1551,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C2" s="1">
         <v>1234567890</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>+B2</f>
@@ -1495,13 +1569,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1">
         <v>987654321</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>+B3</f>
@@ -1513,13 +1587,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C4" s="1">
         <v>39789321</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>+B4</f>
@@ -1556,19 +1630,19 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>14</v>
@@ -1582,25 +1656,25 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F2" s="1">
         <v>54323243</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1608,25 +1682,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="E3" s="16" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="F3" s="1">
         <v>3214321</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="H3" s="17" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1634,25 +1708,25 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F4" s="1">
         <v>5632421</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H4" s="17" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1672,8 +1746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C51225-C664-4835-BBA4-220D6C13A752}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="A1:E4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,10 +1767,10 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -1707,7 +1781,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C2" s="10" t="str">
         <f>[1]TipoServicio!C2</f>
@@ -1726,7 +1800,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C3" s="10" t="str">
         <f>[1]TipoServicio!C3</f>
@@ -1745,7 +1819,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C4" s="10" t="str">
         <f>[1]TipoServicio!C4</f>
@@ -1773,7 +1847,7 @@
   <dimension ref="B3:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E6"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1789,10 +1863,10 @@
         <v>4</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>14</v>
@@ -1803,10 +1877,10 @@
         <v>1</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>D4&amp;"-"&amp;C4</f>
@@ -1818,10 +1892,10 @@
         <v>2</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5" s="5" t="str">
         <f t="shared" ref="E5:E6" si="0">D5&amp;"-"&amp;C5</f>
@@ -1833,10 +1907,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6" s="5" t="str">
         <f t="shared" si="0"/>

--- a/SpaOnline/ModeloDominio/Reservas - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Reservas - Muestreo Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{182ADDFB-6109-41A6-911B-0E4F464A46E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{182ADDFB-6109-41A6-911B-0E4F464A46E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F8EC486-FAAE-467C-BF65-380AADEDD4CA}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="9" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="4" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -407,7 +407,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -430,12 +430,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -475,6 +486,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -551,6 +563,46 @@
     <sheetNames>
       <sheetName val="Modelo de Dominio Anemico"/>
       <sheetName val="Objetos de dominio"/>
+      <sheetName val="Cliente"/>
+      <sheetName val="TipoIdentificacion"/>
+      <sheetName val="Notificacion"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="7">
+          <cell r="B7" t="str">
+            <v>CC</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Pasaporte</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>TI</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Modelo de Dominio Anemico"/>
+      <sheetName val="Objetos de dominio"/>
       <sheetName val="TipoServicio"/>
       <sheetName val="Servicio"/>
       <sheetName val="Oferta"/>
@@ -577,46 +629,6 @@
       </sheetData>
       <sheetData sheetId="3"/>
       <sheetData sheetId="4"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Modelo de Dominio Anemico"/>
-      <sheetName val="Objetos de dominio"/>
-      <sheetName val="Cliente"/>
-      <sheetName val="TipoIdentificacion"/>
-      <sheetName val="Notificacion"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3">
-        <row r="7">
-          <cell r="B7" t="str">
-            <v>CC</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8" t="str">
-            <v>Pasaporte</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9" t="str">
-            <v>TI</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -975,8 +987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA502B3-38DC-4823-9C73-6CD6DE195FB2}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1256,7 +1268,7 @@
         <v>33</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>+[2]TipoIdentificacion!B7</f>
+        <f>+[1]TipoIdentificacion!B7</f>
         <v>CC</v>
       </c>
       <c r="D2" s="1">
@@ -1281,7 +1293,7 @@
         <v>35</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>+[2]TipoIdentificacion!B8</f>
+        <f>+[1]TipoIdentificacion!B8</f>
         <v>Pasaporte</v>
       </c>
       <c r="D3" s="1">
@@ -1306,7 +1318,7 @@
         <v>37</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>+[2]TipoIdentificacion!B9</f>
+        <f>+[1]TipoIdentificacion!B9</f>
         <v>TI</v>
       </c>
       <c r="D4" s="1">
@@ -1401,10 +1413,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1414,10 +1426,11 @@
     <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" customWidth="1"/>
+    <col min="7" max="7" width="58.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1433,11 +1446,14 @@
       <c r="E1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1454,12 +1470,15 @@
       <c r="E2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F2" s="20" t="str">
+      <c r="F2" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="20" t="str">
         <f>+C2&amp;"-"&amp;"-"&amp;D2&amp;" "&amp;B2</f>
         <v>3:00pm-16/03/2024--Pedicura Spa-100000 Martina Corrales-1234567890</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1476,12 +1495,15 @@
       <c r="E3" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F3" s="20" t="str">
-        <f t="shared" ref="F3:F4" si="0">+C3&amp;"-"&amp;"-"&amp;D3&amp;" "&amp;B3</f>
+      <c r="F3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="20" t="str">
+        <f t="shared" ref="G3:G4" si="0">+C3&amp;"-"&amp;"-"&amp;D3&amp;" "&amp;B3</f>
         <v>10:00am-28/04/2024--Tratamiento Facial Antiedad-120000 Ramiro Ramirez-987654321</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1498,13 +1520,16 @@
       <c r="E4" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="20" t="str">
+      <c r="F4" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="20" t="str">
         <f t="shared" si="0"/>
         <v>12:30pm-05/05/2024--Masaje Relajante-100000 Lucrecia Gomez-39789321</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F10" s="19"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" s="19"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1784,7 +1809,7 @@
         <v>67</v>
       </c>
       <c r="C2" s="10" t="str">
-        <f>[1]TipoServicio!C2</f>
+        <f>[2]TipoServicio!C2</f>
         <v>Pedicura y Manicura</v>
       </c>
       <c r="D2" s="18">
@@ -1803,7 +1828,7 @@
         <v>68</v>
       </c>
       <c r="C3" s="10" t="str">
-        <f>[1]TipoServicio!C3</f>
+        <f>[2]TipoServicio!C3</f>
         <v>Tratamiento Facial</v>
       </c>
       <c r="D3" s="18">
@@ -1822,7 +1847,7 @@
         <v>69</v>
       </c>
       <c r="C4" s="10" t="str">
-        <f>[1]TipoServicio!C4</f>
+        <f>[2]TipoServicio!C4</f>
         <v>Masaje</v>
       </c>
       <c r="D4" s="18">

--- a/SpaOnline/ModeloDominio/Reservas - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Reservas - Muestreo Datos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{182ADDFB-6109-41A6-911B-0E4F464A46E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F8EC486-FAAE-467C-BF65-380AADEDD4CA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511BFD20-22CF-43B4-BF54-116AE43FF256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="4" activeTab="4" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -22,11 +22,10 @@
     <sheet name="Sucursal" sheetId="3" r:id="rId7"/>
     <sheet name="Servicios" sheetId="6" r:id="rId8"/>
     <sheet name="Agenda" sheetId="11" r:id="rId9"/>
-    <sheet name="Eventos" sheetId="10" r:id="rId10"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -69,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -134,9 +133,6 @@
     <t>10:00am</t>
   </si>
   <si>
-    <t>12:30pm</t>
-  </si>
-  <si>
     <t>16/03/2024</t>
   </si>
   <si>
@@ -245,33 +241,21 @@
     <t>Rionegro-Antioquia-Colombia-CL 10 43 A 29</t>
   </si>
   <si>
-    <t>SucursalRionegro@gmail.com-54323243</t>
-  </si>
-  <si>
     <t>Marinilla-Antioquia-Colombia</t>
   </si>
   <si>
     <t>Marinilla-Antioquia-Colombia-CL 63 9 36</t>
   </si>
   <si>
-    <t>SucursalMarinilla@gmail.com-3214321</t>
-  </si>
-  <si>
     <t>Medellin-Antioquia-Colombia</t>
   </si>
   <si>
     <t>Medellin-Antioquia-Colombia-CR 2 5 39</t>
   </si>
   <si>
-    <t>SucursalPoblado@gmail.com-5632421</t>
-  </si>
-  <si>
     <t>TipoServicio</t>
   </si>
   <si>
-    <t>Precio</t>
-  </si>
-  <si>
     <t>Pedicura Spa</t>
   </si>
   <si>
@@ -281,68 +265,59 @@
     <t>Masaje Relajante</t>
   </si>
   <si>
-    <t>Eventos</t>
-  </si>
-  <si>
-    <t>CentroEventos</t>
-  </si>
-  <si>
     <t>Objeto de dominio que contiene la informacion basica de los clientes del spa</t>
   </si>
   <si>
-    <t>Pedicura Spa-100000</t>
-  </si>
-  <si>
-    <t>Tratamiento Facial Antiedad-120000</t>
-  </si>
-  <si>
-    <t>Masaje Relajante-100000</t>
-  </si>
-  <si>
-    <t>Martina Corrales-1234567890</t>
-  </si>
-  <si>
-    <t>Ramiro Ramirez-987654321</t>
-  </si>
-  <si>
-    <t>Lucrecia Gomez-39789321</t>
-  </si>
-  <si>
     <t>Agenda</t>
   </si>
   <si>
     <t xml:space="preserve">Objeto de dominio que contiene la informacion de los horarios en los cuales se puede agendar una cita </t>
   </si>
   <si>
-    <t>HoraLaboral</t>
-  </si>
-  <si>
     <t>TipoIdentificacion</t>
   </si>
   <si>
     <t>Notificado</t>
   </si>
   <si>
-    <t>OfertaFacial</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
-    <t>Reserva - 1</t>
-  </si>
-  <si>
-    <t>Factura 1</t>
-  </si>
-  <si>
-    <t>Objeto de dominio que contiene la informacion de los eventos que realiza el Spa</t>
+    <t>HoraInicio</t>
+  </si>
+  <si>
+    <t>HoraFin</t>
+  </si>
+  <si>
+    <t>4:00pm</t>
+  </si>
+  <si>
+    <t>12:00pm</t>
+  </si>
+  <si>
+    <t>2:00pm</t>
+  </si>
+  <si>
+    <t>Notificaciones</t>
+  </si>
+  <si>
+    <t>Pedicura Spa-Masaje Relajante</t>
+  </si>
+  <si>
+    <t>Masaje Relajante-Tratamiento Facial Antiedad-Pedicura Spa</t>
+  </si>
+  <si>
+    <t>Tarifa</t>
+  </si>
+  <si>
+    <t>Tarifas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,8 +355,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -402,7 +398,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,11 +444,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -476,21 +481,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo 2" xfId="3" xr:uid="{F1EB9979-E75D-48B8-9924-89C7B2F7B563}"/>
+    <cellStyle name="Hyperlink" xfId="4" xr:uid="{FBC3B282-5EB2-4AC7-AEEC-E4E89224FB40}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{F38F93BF-FAF1-461E-940C-62620EAC9258}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -515,17 +524,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>248854</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>38743</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>706225</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>10271</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50C8930D-FF7D-7154-0A55-1ED52734DDFB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9FD02CB-74A1-64B3-295D-45C09EE8F091}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -542,7 +551,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="8630854" cy="4610743"/>
+          <a:ext cx="9850225" cy="5344271"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -565,12 +574,11 @@
       <sheetName val="Objetos de dominio"/>
       <sheetName val="Cliente"/>
       <sheetName val="TipoIdentificacion"/>
-      <sheetName val="Notificacion"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="7">
           <cell r="B7" t="str">
@@ -588,7 +596,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="4"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -606,10 +613,12 @@
       <sheetName val="TipoServicio"/>
       <sheetName val="Servicio"/>
       <sheetName val="Oferta"/>
+      <sheetName val="Evento"/>
+      <sheetName val="Notificacion"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
       <sheetData sheetId="2">
         <row r="2">
           <cell r="C2" t="str">
@@ -627,8 +636,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -969,8 +980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -983,90 +994,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDA502B3-38DC-4823-9C73-6CD6DE195FB2}">
-  <dimension ref="A1:D4"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
+  <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="18.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D2" s="5" t="str">
-        <f>B2</f>
-        <v>OfertaFacial</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D3" s="5" t="str">
-        <f t="shared" ref="D3:D4" si="0">B3</f>
-        <v>Reserva - 1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Factura 1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,69 +1021,69 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C2" s="14" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="19"/>
+        <v>24</v>
+      </c>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
@@ -1159,7 +1092,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1187,25 +1120,16 @@
         <v>11</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C11" s="19"/>
+      <c r="A9" s="20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C10" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1221,10 +1145,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE5137F-269A-4BBF-8793-E8FCF1AB8F55}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1234,38 +1158,34 @@
     <col min="3" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>+[1]TipoIdentificacion!B7</f>
@@ -1278,19 +1198,15 @@
         <v>3116987523</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="G2" s="5" t="str">
-        <f>+B2&amp;"-"&amp;D2</f>
-        <v>Martina Corrales-1234567890</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>+[1]TipoIdentificacion!B8</f>
@@ -1303,19 +1219,15 @@
         <v>3639874520</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="G3" s="5" t="str">
-        <f t="shared" ref="G3:G4" si="0">+B3&amp;"-"&amp;D3</f>
-        <v>Ramiro Ramirez-987654321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>+[1]TipoIdentificacion!B9</f>
@@ -1328,11 +1240,7 @@
         <v>3793175677</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Lucrecia Gomez-39789321</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1347,63 +1255,48 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820898BB-1170-416A-9209-732011E756FB}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="A1:C4"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="5" t="str">
-        <f>+B2</f>
-        <v>Pedicura Spa-100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="5" t="str">
-        <f t="shared" ref="C3:C4" si="0">+B3</f>
-        <v>Tratamiento Facial Antiedad-120000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>Masaje Relajante-100000</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1413,126 +1306,147 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" customWidth="1"/>
-    <col min="7" max="7" width="58.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.140625" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.7109375" customWidth="1"/>
+    <col min="8" max="8" width="58.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>Agenda!E4</f>
-        <v>3:00pm-16/03/2024</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>57</v>
+        <f>Agenda!E2</f>
+        <v>3:00pm-4:00pm-16/03/2024</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="16" t="str">
+        <f>Servicios!D2&amp;"-"&amp;Servicios!D4</f>
+        <v>100000-150000</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G2" s="20" t="str">
-        <f>+C2&amp;"-"&amp;"-"&amp;D2&amp;" "&amp;B2</f>
-        <v>3:00pm-16/03/2024--Pedicura Spa-100000 Martina Corrales-1234567890</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="18" t="str">
+        <f>+C2&amp;"-"&amp;B2</f>
+        <v>3:00pm-4:00pm-16/03/2024-Martina Corrales</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>Agenda!E5</f>
-        <v>10:00am-28/04/2024</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>60</v>
+        <f>Agenda!E3</f>
+        <v>10:00am-12:00pm-28/04/2024</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="16">
+        <f>Servicios!D3</f>
+        <v>120000</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G3" s="20" t="str">
-        <f t="shared" ref="G3:G4" si="0">+C3&amp;"-"&amp;"-"&amp;D3&amp;" "&amp;B3</f>
-        <v>10:00am-28/04/2024--Tratamiento Facial Antiedad-120000 Ramiro Ramirez-987654321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H3" s="18" t="str">
+        <f t="shared" ref="H3:H4" si="0">+C3&amp;"-"&amp;B3</f>
+        <v>10:00am-12:00pm-28/04/2024-Ramiro Ramirez</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>Agenda!E4</f>
+        <v>2:00pm-3:00pm-05/05/2024</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="1" t="str">
-        <f>Agenda!E6</f>
-        <v>12:30pm-05/05/2024</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>63</v>
+      <c r="E4" s="16" t="str">
+        <f>Servicios!D4&amp;"-"&amp;Servicios!D3&amp;"-"&amp;Servicios!D2</f>
+        <v>150000-120000-100000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="G4" s="20" t="str">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="18" t="str">
         <f t="shared" si="0"/>
-        <v>12:30pm-05/05/2024--Masaje Relajante-100000 Lucrecia Gomez-39789321</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G10" s="19"/>
+        <v>2:00pm-3:00pm-05/05/2024-Lucrecia Gomez</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="D2" location="ReservaServicio!B2" display="Pedicura Spa-Masaje Relajante" xr:uid="{833C8E98-6DF2-4EB2-9AC5-38C54F3F00D0}"/>
+    <hyperlink ref="D3" location="ReservaServicio!B3" display="Tratamiento Facial Antiedad" xr:uid="{CF79C45B-5B42-4AD3-AF6C-008146ADA260}"/>
+    <hyperlink ref="D4" location="ReservaServicio!B3" display="Masaje Relajante-Tratamiento Facial Antiedad-Pedicura Spa" xr:uid="{E2C67A5B-4270-464E-9A08-72323BB4D9DF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1542,7 +1456,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="A1:E4"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1559,13 +1473,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -1576,13 +1490,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1">
         <v>1234567890</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>+B2</f>
@@ -1594,13 +1508,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1">
         <v>987654321</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E3" s="5" t="str">
         <f>+B3</f>
@@ -1612,13 +1526,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" s="1">
         <v>39789321</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E4" s="5" t="str">
         <f>+B4</f>
@@ -1632,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27757F1-FD83-4C60-A977-3E4A8F875641}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G4"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,113 +1559,87 @@
     <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="37.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H1" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>51</v>
+      <c r="E2" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="F2" s="1">
         <v>54323243</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="16" t="s">
-        <v>53</v>
+      <c r="E3" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="F3" s="1">
         <v>3214321</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="16" t="s">
-        <v>55</v>
+      <c r="E4" s="15" t="s">
+        <v>54</v>
       </c>
       <c r="F4" s="1">
         <v>5632421</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1769,10 +1657,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C51225-C664-4835-BBA4-220D6C13A752}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1781,10 +1669,9 @@
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="33.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
@@ -1792,70 +1679,55 @@
         <v>0</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C2" s="10" t="str">
         <f>[2]TipoServicio!C2</f>
         <v>Pedicura y Manicura</v>
       </c>
-      <c r="D2" s="18">
+      <c r="D2" s="16">
         <v>100000</v>
       </c>
-      <c r="E2" s="5" t="str">
-        <f>B2&amp;"-"&amp;D2</f>
-        <v>Pedicura Spa-100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C3" s="10" t="str">
         <f>[2]TipoServicio!C3</f>
         <v>Tratamiento Facial</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="16">
         <v>120000</v>
       </c>
-      <c r="E3" s="5" t="str">
-        <f>B3&amp;"-"&amp;D3</f>
-        <v>Tratamiento Facial Antiedad-120000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C4" s="10" t="str">
         <f>[2]TipoServicio!C4</f>
         <v>Masaje</v>
       </c>
-      <c r="D4" s="18">
-        <v>100000</v>
-      </c>
-      <c r="E4" s="5" t="str">
-        <f>B4&amp;"-"&amp;D4</f>
-        <v>Masaje Relajante-100000</v>
+      <c r="D4" s="16">
+        <v>150000</v>
       </c>
     </row>
   </sheetData>
@@ -1869,77 +1741,90 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E499858D-1D47-40BF-8F64-07609D992B89}">
-  <dimension ref="B3:E6"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="B1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="1">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="B2" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="5" t="str">
+        <f>C2&amp;"-"&amp;D2&amp;"-"&amp;B2</f>
+        <v>3:00pm-4:00pm-16/03/2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="5" t="str">
+        <f t="shared" ref="E3:E4" si="0">C3&amp;"-"&amp;D3&amp;"-"&amp;B3</f>
+        <v>10:00am-12:00pm-28/04/2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="E4" s="5" t="str">
-        <f>D4&amp;"-"&amp;C4</f>
-        <v>3:00pm-16/03/2024</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="1">
-        <v>2</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5" t="str">
-        <f t="shared" ref="E5:E6" si="0">D5&amp;"-"&amp;C5</f>
-        <v>10:00am-28/04/2024</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>12:30pm-05/05/2024</v>
+        <v>2:00pm-3:00pm-05/05/2024</v>
       </c>
     </row>
   </sheetData>

--- a/SpaOnline/ModeloDominio/Reservas - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Reservas - Muestreo Datos.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{511BFD20-22CF-43B4-BF54-116AE43FF256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{511BFD20-22CF-43B4-BF54-116AE43FF256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EDAC9D8-126C-4AB2-9684-13FE6DCD89CB}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="4" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
     <sheet name="Objetos de dominio" sheetId="2" r:id="rId2"/>
     <sheet name="Cliente" sheetId="7" r:id="rId3"/>
-    <sheet name="ReservaServicio" sheetId="8" r:id="rId4"/>
+    <sheet name="Servicio" sheetId="8" r:id="rId4"/>
     <sheet name="Reserva" sheetId="5" r:id="rId5"/>
     <sheet name="Consentimiento" sheetId="9" r:id="rId6"/>
     <sheet name="Sucursal" sheetId="3" r:id="rId7"/>
-    <sheet name="Servicios" sheetId="6" r:id="rId8"/>
-    <sheet name="Agenda" sheetId="11" r:id="rId9"/>
+    <sheet name="Agenda" sheetId="13" r:id="rId8"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
   </externalReferences>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -97,9 +97,6 @@
     <t>Objeto de dominio que contiene la informacion de los servicios que ofrece el Spa</t>
   </si>
   <si>
-    <t>Objeto de dominio que contiene la informacion de las reservas de las citas del Spa</t>
-  </si>
-  <si>
     <t>Objeto de dominio que contiene la informacion de la ubicación de las sucursales del Spa</t>
   </si>
   <si>
@@ -130,9 +127,6 @@
     <t>3:00pm</t>
   </si>
   <si>
-    <t>10:00am</t>
-  </si>
-  <si>
     <t>16/03/2024</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>Consentimiento</t>
   </si>
   <si>
-    <t>Objeto de dominio que contiene la reserva del servicio disponible</t>
-  </si>
-  <si>
     <t>Objeto de dominio que contiene la informacion del consentimiento</t>
   </si>
   <si>
@@ -187,12 +178,6 @@
     <t>Autorización</t>
   </si>
   <si>
-    <t>SI</t>
-  </si>
-  <si>
-    <t>NO</t>
-  </si>
-  <si>
     <t>Documento de Identificación</t>
   </si>
   <si>
@@ -202,9 +187,6 @@
     <t>Reserva</t>
   </si>
   <si>
-    <t>ReservaServicio</t>
-  </si>
-  <si>
     <t>Nombre</t>
   </si>
   <si>
@@ -235,21 +217,12 @@
     <t>SucursalPoblado@gmail.com</t>
   </si>
   <si>
-    <t>Rionegro-Antioquia-Colombia</t>
-  </si>
-  <si>
     <t>Rionegro-Antioquia-Colombia-CL 10 43 A 29</t>
   </si>
   <si>
-    <t>Marinilla-Antioquia-Colombia</t>
-  </si>
-  <si>
     <t>Marinilla-Antioquia-Colombia-CL 63 9 36</t>
   </si>
   <si>
-    <t>Medellin-Antioquia-Colombia</t>
-  </si>
-  <si>
     <t>Medellin-Antioquia-Colombia-CR 2 5 39</t>
   </si>
   <si>
@@ -271,15 +244,9 @@
     <t>Agenda</t>
   </si>
   <si>
-    <t xml:space="preserve">Objeto de dominio que contiene la informacion de los horarios en los cuales se puede agendar una cita </t>
-  </si>
-  <si>
     <t>TipoIdentificacion</t>
   </si>
   <si>
-    <t>Notificado</t>
-  </si>
-  <si>
     <t>True</t>
   </si>
   <si>
@@ -301,16 +268,55 @@
     <t>Notificaciones</t>
   </si>
   <si>
-    <t>Pedicura Spa-Masaje Relajante</t>
-  </si>
-  <si>
-    <t>Masaje Relajante-Tratamiento Facial Antiedad-Pedicura Spa</t>
-  </si>
-  <si>
     <t>Tarifa</t>
   </si>
   <si>
-    <t>Tarifas</t>
+    <t>Detalle de Reserva</t>
+  </si>
+  <si>
+    <t>Nuestro servicio de pedicura es una experiencia de rejuvenecimiento para tus pies cansados y estresados. En un ambiente relajante y acogedor, nuestros expertos en cuidado de pies te ofrecen un tratamiento completo que dejará tus pies sintiéndose frescos, suaves y renovados</t>
+  </si>
+  <si>
+    <t>Nuestro tratamiento facial antiedad es una experiencia de rejuvenecimiento diseñada para restaurar la juventud y vitalidad de tu piel. Con una combinación experta de técnicas avanzadas y productos de alta calidad, nuestro equipo de especialistas en cuidado de la piel te brindará una experiencia personalizada que aborda las preocupaciones específicas relacionadas con el envejecimiento de la piel</t>
+  </si>
+  <si>
+    <t>Nuestro masaje relajante es una experiencia indulgente diseñada para liberar el estrés, aliviar la tensión muscular y promover una sensación general de calma y bienestar. En un ambiente tranquilo y acogedor, nuestros terapeutas expertos en masajes te brindarán un tratamiento personalizado que te ayudará a desconectar del ajetreo diario y a revitalizar cuerpo y mente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objeto de dominio que hace el llamado a consumo de un tercero para notificar </t>
+  </si>
+  <si>
+    <t>Noficaciones</t>
+  </si>
+  <si>
+    <t>Genero</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion de las reservas de las citas del Spa que solo se puede reservar un solo servicio por reserva</t>
+  </si>
+  <si>
+    <t>11:00am</t>
+  </si>
+  <si>
+    <t>Objeto de dominio que contiene la informacion de los horarios en los cuales se puede agendar una cita con estandar de 1h (Tiempo que dura cualquier servicio).</t>
+  </si>
+  <si>
+    <t>NotificadoReserva</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>Institucion</t>
+  </si>
+  <si>
+    <t>HorariosAtencion</t>
+  </si>
+  <si>
+    <t>8:00 am - 7:00 pm</t>
+  </si>
+  <si>
+    <t>ValorReserva</t>
   </si>
 </sst>
 </file>
@@ -398,13 +404,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="3" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.499984740745262"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,10 +495,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -521,20 +527,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>706225</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>10271</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>744117</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>172119</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
+        <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A9FD02CB-74A1-64B3-295D-45C09EE8F091}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D36338-8C0C-9431-768C-AC8F1A5BF614}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -550,8 +556,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="9850225" cy="5344271"/>
+          <a:off x="0" y="142875"/>
+          <a:ext cx="8364117" cy="4791744"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -573,13 +579,26 @@
       <sheetName val="Modelo de Dominio Anemico"/>
       <sheetName val="Objetos de dominio"/>
       <sheetName val="Cliente"/>
+      <sheetName val="Genero"/>
       <sheetName val="TipoIdentificacion"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Masculino</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Femenino</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
         <row r="7">
           <cell r="B7" t="str">
             <v>CC</v>
@@ -610,16 +629,34 @@
     <sheetNames>
       <sheetName val="Modelo de Dominio Anemico"/>
       <sheetName val="Objetos de dominio"/>
+      <sheetName val="Tarifa"/>
       <sheetName val="TipoServicio"/>
       <sheetName val="Servicio"/>
       <sheetName val="Oferta"/>
       <sheetName val="Evento"/>
-      <sheetName val="Notificacion"/>
+      <sheetName val="Cliente"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
       <sheetData sheetId="2">
+        <row r="2">
+          <cell r="B2">
+            <v>100000</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>120000</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4">
+            <v>100000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
         <row r="2">
           <cell r="C2" t="str">
             <v>Pedicura y Manicura</v>
@@ -636,10 +673,78 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="4"/>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Modelo de Dominio Anemico"/>
+      <sheetName val="Objetos de dominio"/>
+      <sheetName val="Pais"/>
+      <sheetName val="Departamento"/>
+      <sheetName val="Ciudad"/>
+      <sheetName val="Sucursal"/>
+      <sheetName val="Instituciones"/>
+      <sheetName val="Agenda"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="E2" t="str">
+            <v>Rionegro-Antioquia-Colombia</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3" t="str">
+            <v>Marinilla-Antioquia-Colombia</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4" t="str">
+            <v>Medellin-Antioquia-Colombia</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5"/>
+      <sheetData sheetId="6">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>SpaOnline</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="7">
+        <row r="2">
+          <cell r="E2" t="str">
+            <v>3:00pm-4:00pm-16/03/2024</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3" t="str">
+            <v>11:00am-12:00pm-28/04/2024</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4" t="str">
+            <v>2:00pm-3:00pm-05/05/2024</v>
+          </cell>
+        </row>
+      </sheetData>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -980,7 +1085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -996,10 +1101,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D92343-C7F8-498A-9249-704487594109}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1021,122 +1126,120 @@
         <v>2</v>
       </c>
       <c r="D1" s="14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="17"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="17"/>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B4" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>29</v>
+      <c r="D8" s="1" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="17"/>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A7" r:id="rId1" xr:uid="{8EFF29E0-6B07-4522-918B-B10FC37D7D6D}"/>
-    <hyperlink ref="A8" r:id="rId2" xr:uid="{D85578A5-01DB-4CE4-84EB-E6E7CC86B3E6}"/>
-    <hyperlink ref="C7" location="Sucursales!A1" display="Referenciado" xr:uid="{C2C27A26-9F26-4F3C-9EC9-DC99886623EE}"/>
-    <hyperlink ref="C8" location="Servicios!A1" display="Referenciado" xr:uid="{B7D4804B-6051-4D79-AD41-2B1639254A0D}"/>
+    <hyperlink ref="A5" r:id="rId1" xr:uid="{8EFF29E0-6B07-4522-918B-B10FC37D7D6D}"/>
+    <hyperlink ref="A7" r:id="rId2" xr:uid="{D85578A5-01DB-4CE4-84EB-E6E7CC86B3E6}"/>
+    <hyperlink ref="C5" location="Sucursales!A1" display="Referenciado" xr:uid="{C2C27A26-9F26-4F3C-9EC9-DC99886623EE}"/>
+    <hyperlink ref="C7" location="Servicios!A1" display="Referenciado" xr:uid="{B7D4804B-6051-4D79-AD41-2B1639254A0D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId3"/>
@@ -1145,10 +1248,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE5137F-269A-4BBF-8793-E8FCF1AB8F55}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1157,97 +1260,115 @@
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1" t="str">
         <f>+[1]TipoIdentificacion!B7</f>
         <v>CC</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="1" t="str">
+        <f>[1]Genero!B3</f>
+        <v>Femenino</v>
+      </c>
+      <c r="E2" s="1">
         <v>1234567890</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>3116987523</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="10" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1" t="str">
         <f>+[1]TipoIdentificacion!B8</f>
         <v>Pasaporte</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="1" t="str">
+        <f>[1]Genero!B2</f>
+        <v>Masculino</v>
+      </c>
+      <c r="E3" s="1">
         <v>987654321</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>3639874520</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1" t="str">
         <f>+[1]TipoIdentificacion!B9</f>
         <v>TI</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="str">
+        <f>[1]Genero!B3</f>
+        <v>Femenino</v>
+      </c>
+      <c r="E4" s="1">
         <v>39789321</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F4" s="1">
         <v>3793175677</v>
       </c>
-      <c r="F4" s="10" t="s">
-        <v>37</v>
-      </c>
+      <c r="G4" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G14" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{A1D5EE9E-3A51-4A5D-A756-C8E492EAB392}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{515D0BDE-007D-4A5C-9DF2-C1142F9E6660}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{D6E8FBE3-7A8D-438E-8A45-B860C60B9BC9}"/>
+    <hyperlink ref="G4" r:id="rId1" xr:uid="{B977891A-0004-43F6-BA69-B38D8B0641F3}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{A60CD54B-9552-4C11-B31F-1D41072629CA}"/>
+    <hyperlink ref="G2" r:id="rId3" xr:uid="{0414F15C-EA2F-424D-9F4D-650ADAF7EBF8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1255,71 +1376,122 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820898BB-1170-416A-9209-732011E756FB}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="72.42578125" customWidth="1"/>
+    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="10" t="str">
+        <f>[2]TipoServicio!C2</f>
+        <v>Pedicura y Manicura</v>
+      </c>
+      <c r="E2" s="20">
+        <f>[2]Tarifa!B2</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="10" t="str">
+        <f>[2]TipoServicio!C3</f>
+        <v>Tratamiento Facial</v>
+      </c>
+      <c r="E3" s="20">
+        <f>[2]Tarifa!B3</f>
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>55</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f>[2]TipoServicio!C4</f>
+        <v>Masaje</v>
+      </c>
+      <c r="E4" s="20">
+        <f>[2]Tarifa!B4</f>
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" location="TipoServicio!D2" display="TipoServicio!D2" xr:uid="{8B23B2CA-07AB-40EF-9E3B-E0A004B495EE}"/>
+    <hyperlink ref="D3:D4" location="TipoServicio!D2" display="TipoServicio!D2" xr:uid="{097575AC-ED50-41A1-91EB-0A69BAD21836}"/>
+    <hyperlink ref="E2" location="Tarifa!B2" display="Tarifa!B2" xr:uid="{39943BEA-51F0-466A-8CDE-95CB9D907002}"/>
+    <hyperlink ref="E3" location="Tarifa!B3" display="Tarifa!B3" xr:uid="{F5628226-F7D0-48FE-BDB1-DEA6F4BEBBE7}"/>
+    <hyperlink ref="E4" location="Tarifa!B4" display="Tarifa!B4" xr:uid="{C04FBF23-2F66-42B0-B5A2-04E63BCF9FB9}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="55.140625" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="26.85546875" customWidth="1"/>
+    <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="39.7109375" customWidth="1"/>
     <col min="8" max="8" width="58.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -1329,25 +1501,25 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>44</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="F1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="G1" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1355,27 +1527,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="1" t="str">
-        <f>Agenda!E2</f>
+        <v>29</v>
+      </c>
+      <c r="C2" s="10" t="str">
+        <f>Servicio!B2</f>
+        <v>Pedicura Spa</v>
+      </c>
+      <c r="D2" s="16">
+        <f>Servicio!E2</f>
+        <v>100000</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="10" t="str">
+        <f>[3]Agenda!E2</f>
         <v>3:00pm-4:00pm-16/03/2024</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="16" t="str">
-        <f>Servicios!D2&amp;"-"&amp;Servicios!D4</f>
-        <v>100000-150000</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H2" s="18" t="str">
-        <f>+C2&amp;"-"&amp;B2</f>
+        <f>+F2&amp;"-"&amp;B2</f>
         <v>3:00pm-4:00pm-16/03/2024-Martina Corrales</v>
       </c>
     </row>
@@ -1384,28 +1557,29 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C3" s="1" t="str">
-        <f>Agenda!E3</f>
-        <v>10:00am-12:00pm-28/04/2024</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="16">
-        <f>Servicios!D3</f>
+        <v>31</v>
+      </c>
+      <c r="C3" s="10" t="str">
+        <f>Servicio!B3</f>
+        <v>Tratamiento Facial Antiedad</v>
+      </c>
+      <c r="D3" s="16">
+        <f>Servicio!E3</f>
         <v>120000</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>58</v>
+      <c r="E3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="10" t="str">
+        <f>[3]Agenda!E3</f>
+        <v>11:00am-12:00pm-28/04/2024</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H3" s="18" t="str">
-        <f t="shared" ref="H3:H4" si="0">+C3&amp;"-"&amp;B3</f>
-        <v>10:00am-12:00pm-28/04/2024-Ramiro Ramirez</v>
+        <f>+F3&amp;"-"&amp;B3</f>
+        <v>11:00am-12:00pm-28/04/2024-Ramiro Ramirez</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1413,39 +1587,45 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="1" t="str">
-        <f>Agenda!E4</f>
+        <v>33</v>
+      </c>
+      <c r="C4" s="10" t="str">
+        <f>Servicio!B4</f>
+        <v>Masaje Relajante</v>
+      </c>
+      <c r="D4" s="16">
+        <f>Servicio!E4</f>
+        <v>100000</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="10" t="str">
+        <f>[3]Agenda!E4</f>
         <v>2:00pm-3:00pm-05/05/2024</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E4" s="16" t="str">
-        <f>Servicios!D4&amp;"-"&amp;Servicios!D3&amp;"-"&amp;Servicios!D2</f>
-        <v>150000-120000-100000</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="H4" s="18" t="str">
-        <f t="shared" si="0"/>
+        <f>+F4&amp;"-"&amp;B4</f>
         <v>2:00pm-3:00pm-05/05/2024-Lucrecia Gomez</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H10" s="17"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" location="ReservaServicio!B2" display="Pedicura Spa-Masaje Relajante" xr:uid="{833C8E98-6DF2-4EB2-9AC5-38C54F3F00D0}"/>
-    <hyperlink ref="D3" location="ReservaServicio!B3" display="Tratamiento Facial Antiedad" xr:uid="{CF79C45B-5B42-4AD3-AF6C-008146ADA260}"/>
-    <hyperlink ref="D4" location="ReservaServicio!B3" display="Masaje Relajante-Tratamiento Facial Antiedad-Pedicura Spa" xr:uid="{E2C67A5B-4270-464E-9A08-72323BB4D9DF}"/>
+    <hyperlink ref="C2" location="ReservaServicio!B2" display="Pedicura Spa-Masaje Relajante" xr:uid="{833C8E98-6DF2-4EB2-9AC5-38C54F3F00D0}"/>
+    <hyperlink ref="C3:C4" location="ReservaServicio!B2" display="Pedicura Spa-Masaje Relajante" xr:uid="{7700A8F7-8FED-411F-9EB6-0F17A4A409B3}"/>
+    <hyperlink ref="F2" location="Agenda!A1" display="Agenda!A1" xr:uid="{2C7294DC-03F8-4196-AFD6-D3B7BF175F5F}"/>
+    <hyperlink ref="F3" location="Agenda!A1" display="Agenda!A1" xr:uid="{EF1EC4DD-89F3-46A4-84D9-F65BB7965752}"/>
+    <hyperlink ref="F4" location="Agenda!A1" display="Agenda!A1" xr:uid="{4C696339-AFE0-485C-820F-26F0EFF22FA7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1456,7 +1636,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="C2" sqref="C2:C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1473,13 +1653,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>5</v>
@@ -1490,17 +1670,17 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C2" s="1">
         <v>1234567890</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E2" s="5" t="str">
-        <f>+B2</f>
-        <v>Martina Corrales</v>
+        <f>C2&amp;"-"&amp;D2</f>
+        <v>1234567890-True</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -1508,17 +1688,17 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C3" s="1">
         <v>987654321</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>40</v>
+        <v>78</v>
       </c>
       <c r="E3" s="5" t="str">
-        <f>+B3</f>
-        <v>Ramiro Ramirez</v>
+        <f t="shared" ref="E3:E4" si="0">C3&amp;"-"&amp;D3</f>
+        <v>987654321-False</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1526,17 +1706,17 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1">
         <v>39789321</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E4" s="5" t="str">
-        <f>+B4</f>
-        <v>Lucrecia Gomez</v>
+        <f t="shared" si="0"/>
+        <v>39789321-True</v>
       </c>
     </row>
   </sheetData>
@@ -1546,10 +1726,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27757F1-FD83-4C60-A977-3E4A8F875641}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1562,189 +1742,138 @@
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>45</v>
+        <v>79</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>46</v>
+        <v>11</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="1">
+      <c r="B2" s="1" t="str">
+        <f>[3]Instituciones!B2</f>
+        <v>SpaOnline</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="10" t="str">
+        <f>[3]Ciudad!E2</f>
+        <v>Rionegro-Antioquia-Colombia</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1">
         <v>54323243</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H2" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="B3" s="1" t="str">
+        <f>[3]Instituciones!B2</f>
+        <v>SpaOnline</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="10" t="str">
+        <f>[3]Ciudad!E3</f>
+        <v>Marinilla-Antioquia-Colombia</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3214321</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="str">
+        <f>[3]Instituciones!B2</f>
+        <v>SpaOnline</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="10" t="str">
+        <f>[3]Ciudad!E4</f>
+        <v>Medellin-Antioquia-Colombia</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="1">
-        <v>3214321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="F4" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="1">
         <v>5632421</v>
       </c>
+      <c r="H4" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="17"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{53047D00-5661-4559-8A96-17D1361028AF}"/>
-    <hyperlink ref="C3:C4" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{0EF56730-61DC-4D5E-BB8D-6E584887B9C8}"/>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{AB062AC7-CCE4-4F3A-9354-82DD00A76D13}"/>
-    <hyperlink ref="E3:E4" r:id="rId2" display="SucursalRionegr@gmail.com" xr:uid="{2D15B5A4-7D37-4C6F-A782-AFDB891C23BF}"/>
-    <hyperlink ref="E3" r:id="rId3" xr:uid="{DBC5DF50-B86E-45EA-9B45-F21A7C714AD8}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{1D018461-DEC3-4C6E-B37D-43FBC1543C7A}"/>
+    <hyperlink ref="D2" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{AB631816-6E13-4094-BA89-1C80350C46FA}"/>
+    <hyperlink ref="D3:D4" location="Ciudad!E2" display="Ciudad!E2" xr:uid="{966FB64E-1F4E-4656-9DC6-2C05C46BFDFD}"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{BDD44CE7-0CA2-48E0-AE50-E7E0DAB7689C}"/>
+    <hyperlink ref="F3:F4" r:id="rId2" display="SucursalRionegr@gmail.com" xr:uid="{49AEC7D2-B1EE-4B87-94A1-4914568B23BB}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{FCEBD237-6FAB-47AC-9AB5-DDCB5846F491}"/>
+    <hyperlink ref="F4" r:id="rId4" xr:uid="{0244FCD8-AA03-420A-A34D-B50DFF5BECD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62C51225-C664-4835-BBA4-220D6C13A752}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA825D2-AE5A-46D4-813E-0899F209F48B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="10" t="str">
-        <f>[2]TipoServicio!C2</f>
-        <v>Pedicura y Manicura</v>
-      </c>
-      <c r="D2" s="16">
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="10" t="str">
-        <f>[2]TipoServicio!C3</f>
-        <v>Tratamiento Facial</v>
-      </c>
-      <c r="D3" s="16">
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C4" s="10" t="str">
-        <f>[2]TipoServicio!C4</f>
-        <v>Masaje</v>
-      </c>
-      <c r="D4" s="16">
-        <v>150000</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" location="TipoServicio!D2" display="TipoServicio!D2" xr:uid="{FD493911-2FBD-4DED-9041-60A6E532829C}"/>
-    <hyperlink ref="C3:C4" location="TipoServicio!D2" display="TipoServicio!D2" xr:uid="{849735E3-74E0-4AB1-9BD7-D4589084B526}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E499858D-1D47-40BF-8F64-07609D992B89}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1752,79 +1881,63 @@
     <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E2" s="5" t="str">
-        <f>C2&amp;"-"&amp;D2&amp;"-"&amp;B2</f>
-        <v>3:00pm-4:00pm-16/03/2024</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>20</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E3" s="5" t="str">
-        <f t="shared" ref="E3:E4" si="0">C3&amp;"-"&amp;D3&amp;"-"&amp;B3</f>
-        <v>10:00am-12:00pm-28/04/2024</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="5" t="str">
-        <f t="shared" si="0"/>
-        <v>2:00pm-3:00pm-05/05/2024</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/SpaOnline/ModeloDominio/Reservas - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Reservas - Muestreo Datos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://grchia-my.sharepoint.com/personal/jhonatan_gomez_wiga_io/Documents/Escritorio/UCO/DOO/SpaOnline/ModeloDominio/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{511BFD20-22CF-43B4-BF54-116AE43FF256}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4EDAC9D8-126C-4AB2-9684-13FE6DCD89CB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972C0E91-DD1E-4DC1-A7F6-8472AFBB0482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="4" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
@@ -583,9 +583,9 @@
       <sheetName val="TipoIdentificacion"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="B2" t="str">
@@ -699,11 +699,11 @@
       <sheetName val="Agenda"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4">
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1">
         <row r="2">
           <cell r="E2" t="str">
             <v>Rionegro-Antioquia-Colombia</v>
@@ -720,8 +720,8 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6">
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1">
         <row r="2">
           <cell r="B2" t="str">
             <v>SpaOnline</v>
@@ -1085,7 +1085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
@@ -1480,8 +1480,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/SpaOnline/ModeloDominio/Reservas - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Reservas - Muestreo Datos.xlsx
@@ -5,27 +5,28 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972C0E91-DD1E-4DC1-A7F6-8472AFBB0482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B5A1C7-F65B-40D8-BF1A-CF77D78210E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="4" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="5" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
     <sheet name="Objetos de dominio" sheetId="2" r:id="rId2"/>
-    <sheet name="Cliente" sheetId="7" r:id="rId3"/>
-    <sheet name="Servicio" sheetId="8" r:id="rId4"/>
-    <sheet name="Reserva" sheetId="5" r:id="rId5"/>
-    <sheet name="Consentimiento" sheetId="9" r:id="rId6"/>
-    <sheet name="Sucursal" sheetId="3" r:id="rId7"/>
-    <sheet name="Agenda" sheetId="13" r:id="rId8"/>
+    <sheet name="Notificaciones" sheetId="14" r:id="rId3"/>
+    <sheet name="Cliente" sheetId="7" r:id="rId4"/>
+    <sheet name="Servicio" sheetId="8" r:id="rId5"/>
+    <sheet name="Reserva" sheetId="5" r:id="rId6"/>
+    <sheet name="Consentimiento" sheetId="9" r:id="rId7"/>
+    <sheet name="Sucursal" sheetId="3" r:id="rId8"/>
+    <sheet name="Agenda" sheetId="13" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
     <externalReference r:id="rId11"/>
+    <externalReference r:id="rId12"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -68,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -217,18 +218,6 @@
     <t>SucursalPoblado@gmail.com</t>
   </si>
   <si>
-    <t>Rionegro-Antioquia-Colombia-CL 10 43 A 29</t>
-  </si>
-  <si>
-    <t>Marinilla-Antioquia-Colombia-CL 63 9 36</t>
-  </si>
-  <si>
-    <t>Medellin-Antioquia-Colombia-CR 2 5 39</t>
-  </si>
-  <si>
-    <t>TipoServicio</t>
-  </si>
-  <si>
     <t>Pedicura Spa</t>
   </si>
   <si>
@@ -268,21 +257,9 @@
     <t>Notificaciones</t>
   </si>
   <si>
-    <t>Tarifa</t>
-  </si>
-  <si>
     <t>Detalle de Reserva</t>
   </si>
   <si>
-    <t>Nuestro servicio de pedicura es una experiencia de rejuvenecimiento para tus pies cansados y estresados. En un ambiente relajante y acogedor, nuestros expertos en cuidado de pies te ofrecen un tratamiento completo que dejará tus pies sintiéndose frescos, suaves y renovados</t>
-  </si>
-  <si>
-    <t>Nuestro tratamiento facial antiedad es una experiencia de rejuvenecimiento diseñada para restaurar la juventud y vitalidad de tu piel. Con una combinación experta de técnicas avanzadas y productos de alta calidad, nuestro equipo de especialistas en cuidado de la piel te brindará una experiencia personalizada que aborda las preocupaciones específicas relacionadas con el envejecimiento de la piel</t>
-  </si>
-  <si>
-    <t>Nuestro masaje relajante es una experiencia indulgente diseñada para liberar el estrés, aliviar la tensión muscular y promover una sensación general de calma y bienestar. En un ambiente tranquilo y acogedor, nuestros terapeutas expertos en masajes te brindarán un tratamiento personalizado que te ayudará a desconectar del ajetreo diario y a revitalizar cuerpo y mente</t>
-  </si>
-  <si>
     <t xml:space="preserve">Objeto de dominio que hace el llamado a consumo de un tercero para notificar </t>
   </si>
   <si>
@@ -301,9 +278,6 @@
     <t>Objeto de dominio que contiene la informacion de los horarios en los cuales se puede agendar una cita con estandar de 1h (Tiempo que dura cualquier servicio).</t>
   </si>
   <si>
-    <t>NotificadoReserva</t>
-  </si>
-  <si>
     <t>False</t>
   </si>
   <si>
@@ -316,7 +290,28 @@
     <t>8:00 am - 7:00 pm</t>
   </si>
   <si>
-    <t>ValorReserva</t>
+    <t>TipoNotificacion</t>
+  </si>
+  <si>
+    <t>NotificadoA</t>
+  </si>
+  <si>
+    <t>Mesaje</t>
+  </si>
+  <si>
+    <t>EsNotificado</t>
+  </si>
+  <si>
+    <t>La reserva ha sido realizada exitosamente</t>
+  </si>
+  <si>
+    <t>Queremos informarte que por el mes de madres hay descuento en limpieza facial</t>
+  </si>
+  <si>
+    <t>Le adjuntamos su factura emitida</t>
+  </si>
+  <si>
+    <t>ReservaNotificada</t>
   </si>
 </sst>
 </file>
@@ -383,7 +378,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -399,18 +394,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="65"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -480,9 +463,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -490,15 +470,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -578,14 +571,73 @@
     <sheetNames>
       <sheetName val="Modelo de Dominio Anemico"/>
       <sheetName val="Objetos de dominio"/>
+      <sheetName val="Notificación"/>
+      <sheetName val="Cliente"/>
+      <sheetName val="TipoNotificación"/>
+      <sheetName val="ListaNotificacion"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="G2" t="str">
+            <v>martina.corrales@gmail.com</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="G4" t="str">
+            <v>lucrecia.gomez@hotmail.com</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>Reserva</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3" t="str">
+            <v>Evento</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Factura</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5">
+        <row r="2">
+          <cell r="B2" t="str">
+            <v>General</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Modelo de Dominio Anemico"/>
+      <sheetName val="Objetos de dominio"/>
       <sheetName val="Cliente"/>
       <sheetName val="Genero"/>
       <sheetName val="TipoIdentificacion"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="B2" t="str">
@@ -615,68 +667,6 @@
           </cell>
         </row>
       </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Modelo de Dominio Anemico"/>
-      <sheetName val="Objetos de dominio"/>
-      <sheetName val="Tarifa"/>
-      <sheetName val="TipoServicio"/>
-      <sheetName val="Servicio"/>
-      <sheetName val="Oferta"/>
-      <sheetName val="Evento"/>
-      <sheetName val="Cliente"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="2">
-          <cell r="B2">
-            <v>100000</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>120000</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>100000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="2">
-          <cell r="C2" t="str">
-            <v>Pedicura y Manicura</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="C3" t="str">
-            <v>Tratamiento Facial</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="C4" t="str">
-            <v>Masaje</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1104,7 +1094,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1116,42 +1106,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="10" t="s">
         <v>22</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="17"/>
+      <c r="E2" s="15"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="1" t="s">
@@ -1159,11 +1149,11 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="10" t="s">
         <v>38</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>3</v>
@@ -1179,7 +1169,7 @@
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
@@ -1187,13 +1177,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>57</v>
+      <c r="A6" s="10" t="s">
+        <v>53</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -1207,7 +1197,7 @@
       <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="8" t="s">
@@ -1215,31 +1205,34 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>65</v>
+      <c r="A8" s="10" t="s">
+        <v>61</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C8" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="17"/>
+      <c r="C9" s="15"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="17"/>
+      <c r="B18" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A5" r:id="rId1" xr:uid="{8EFF29E0-6B07-4522-918B-B10FC37D7D6D}"/>
     <hyperlink ref="A7" r:id="rId2" xr:uid="{D85578A5-01DB-4CE4-84EB-E6E7CC86B3E6}"/>
-    <hyperlink ref="C5" location="Sucursales!A1" display="Referenciado" xr:uid="{C2C27A26-9F26-4F3C-9EC9-DC99886623EE}"/>
-    <hyperlink ref="C7" location="Servicios!A1" display="Referenciado" xr:uid="{B7D4804B-6051-4D79-AD41-2B1639254A0D}"/>
+    <hyperlink ref="A2" location="Cliente!A1" display="Cliente" xr:uid="{374FDCFD-AAAE-48E1-BBBB-FBACA387B1F9}"/>
+    <hyperlink ref="A3" location="Consentimiento!A1" display="Consentimiento" xr:uid="{CAC2911E-421B-4E05-8936-9B26796F9E5B}"/>
+    <hyperlink ref="A4" location="Reserva!A1" display="Reserva" xr:uid="{B1A41752-AA3D-4C7A-B2B5-FA35AA3DBF3C}"/>
+    <hyperlink ref="A6" location="Agenda!A1" display="Agenda" xr:uid="{E52C58A5-D2F0-4052-95C0-1BCBF35568A4}"/>
+    <hyperlink ref="A8" location="Notificaciones!A1" display="Notificaciones" xr:uid="{062938DD-64F4-4DD5-A126-8692D77C4A3F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId3"/>
@@ -1247,20 +1240,121 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55381C2-B610-4E42-A783-641DEDCF2EA3}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10" t="str">
+        <f>+[1]TipoNotificación!B2</f>
+        <v>Reserva</v>
+      </c>
+      <c r="C2" s="1" t="str">
+        <f>[1]Cliente!G2</f>
+        <v>martina.corrales@gmail.com</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10" t="str">
+        <f>+[1]TipoNotificación!B3</f>
+        <v>Evento</v>
+      </c>
+      <c r="C3" s="1" t="str">
+        <f>+[1]ListaNotificacion!B2</f>
+        <v>General</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10" t="str">
+        <f>+[1]TipoNotificación!B4</f>
+        <v>Factura</v>
+      </c>
+      <c r="C4" s="1" t="str">
+        <f>[1]Cliente!G4</f>
+        <v>lucrecia.gomez@hotmail.com</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" location="TipoNotificación!A1" display="TipoNotificación!A1" xr:uid="{3B4527D2-0A05-45D0-B376-C6CCF4E2E2E5}"/>
+    <hyperlink ref="B3" location="TipoNotificación!A1" display="TipoNotificación!A1" xr:uid="{EC1ADC75-6821-4240-B686-A2D2CB9B23D2}"/>
+    <hyperlink ref="B4" location="TipoNotificación!A1" display="TipoNotificación!A1" xr:uid="{1C2B65EA-E0AC-4513-89D8-A91165C9EB2A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CE5137F-269A-4BBF-8793-E8FCF1AB8F55}">
   <dimension ref="A1:G14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="27.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1271,10 +1365,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="E1" s="3" t="s">
         <v>36</v>
@@ -1294,11 +1388,11 @@
         <v>29</v>
       </c>
       <c r="C2" s="1" t="str">
-        <f>+[1]TipoIdentificacion!B7</f>
+        <f>+[2]TipoIdentificacion!B7</f>
         <v>CC</v>
       </c>
       <c r="D2" s="1" t="str">
-        <f>[1]Genero!B3</f>
+        <f>[2]Genero!B3</f>
         <v>Femenino</v>
       </c>
       <c r="E2" s="1">
@@ -1319,11 +1413,11 @@
         <v>31</v>
       </c>
       <c r="C3" s="1" t="str">
-        <f>+[1]TipoIdentificacion!B8</f>
+        <f>+[2]TipoIdentificacion!B8</f>
         <v>Pasaporte</v>
       </c>
       <c r="D3" s="1" t="str">
-        <f>[1]Genero!B2</f>
+        <f>[2]Genero!B2</f>
         <v>Masculino</v>
       </c>
       <c r="E3" s="1">
@@ -1344,11 +1438,11 @@
         <v>33</v>
       </c>
       <c r="C4" s="1" t="str">
-        <f>+[1]TipoIdentificacion!B9</f>
+        <f>+[2]TipoIdentificacion!B9</f>
         <v>TI</v>
       </c>
       <c r="D4" s="1" t="str">
-        <f>[1]Genero!B3</f>
+        <f>[2]Genero!B3</f>
         <v>Femenino</v>
       </c>
       <c r="E4" s="1">
@@ -1362,7 +1456,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G14" s="17"/>
+      <c r="G14" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1374,269 +1468,225 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820898BB-1170-416A-9209-732011E756FB}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="72.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="10" t="str">
-        <f>[2]TipoServicio!C2</f>
-        <v>Pedicura y Manicura</v>
-      </c>
-      <c r="E2" s="20">
-        <f>[2]Tarifa!B2</f>
-        <v>100000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D3" s="10" t="str">
-        <f>[2]TipoServicio!C3</f>
-        <v>Tratamiento Facial</v>
-      </c>
-      <c r="E3" s="20">
-        <f>[2]Tarifa!B3</f>
-        <v>120000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D4" s="10" t="str">
-        <f>[2]TipoServicio!C4</f>
-        <v>Masaje</v>
-      </c>
-      <c r="E4" s="20">
-        <f>[2]Tarifa!B4</f>
-        <v>100000</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="44.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <v>1</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2" s="11" t="str">
+        <f>Servicio!B2</f>
+        <v>Pedicura Spa</v>
+      </c>
+      <c r="D2" s="8" t="str">
+        <f>+Sucursal!C2</f>
+        <v>Sucursal Rionegro</v>
+      </c>
+      <c r="E2" s="11" t="str">
+        <f>[3]Agenda!E2</f>
+        <v>3:00pm-4:00pm-16/03/2024</v>
+      </c>
+      <c r="F2" s="8" t="str">
+        <f>+Consentimiento!D2</f>
+        <v>True</v>
+      </c>
+      <c r="G2" s="8" t="str">
+        <f>+Notificaciones!E2</f>
+        <v>True</v>
+      </c>
+      <c r="H2" s="19" t="str">
+        <f>+B2&amp;"-"&amp;C2&amp;"-"&amp;D2&amp;"-"&amp;E2</f>
+        <v>Martina Corrales-Pedicura Spa-Sucursal Rionegro-3:00pm-4:00pm-16/03/2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
+        <v>2</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="11" t="str">
+        <f>Servicio!B3</f>
+        <v>Tratamiento Facial Antiedad</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f>+Sucursal!C3</f>
+        <v>Sucursal Marinilla</v>
+      </c>
+      <c r="E3" s="11" t="str">
+        <f>[3]Agenda!E3</f>
+        <v>11:00am-12:00pm-28/04/2024</v>
+      </c>
+      <c r="F3" s="8" t="str">
+        <f>+Consentimiento!D3</f>
+        <v>False</v>
+      </c>
+      <c r="G3" s="8" t="str">
+        <f>+Notificaciones!E2</f>
+        <v>True</v>
+      </c>
+      <c r="H3" s="19" t="str">
+        <f t="shared" ref="H3:H4" si="0">+B3&amp;"-"&amp;C3&amp;"-"&amp;D3&amp;"-"&amp;E3</f>
+        <v>Ramiro Ramirez-Tratamiento Facial Antiedad-Sucursal Marinilla-11:00am-12:00pm-28/04/2024</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="8">
+        <v>3</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="11" t="str">
+        <f>Servicio!B4</f>
+        <v>Masaje Relajante</v>
+      </c>
+      <c r="D4" s="8" t="str">
+        <f>+Sucursal!C4</f>
+        <v>Sucursal El Poblado</v>
+      </c>
+      <c r="E4" s="11" t="str">
+        <f>[3]Agenda!E4</f>
+        <v>2:00pm-3:00pm-05/05/2024</v>
+      </c>
+      <c r="F4" s="8" t="str">
+        <f>+Consentimiento!D4</f>
+        <v>True</v>
+      </c>
+      <c r="G4" s="8" t="str">
+        <f>+Notificaciones!E2</f>
+        <v>True</v>
+      </c>
+      <c r="H4" s="19" t="str">
+        <f t="shared" si="0"/>
+        <v>Lucrecia Gomez-Masaje Relajante-Sucursal El Poblado-2:00pm-3:00pm-05/05/2024</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="20"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" location="TipoServicio!D2" display="TipoServicio!D2" xr:uid="{8B23B2CA-07AB-40EF-9E3B-E0A004B495EE}"/>
-    <hyperlink ref="D3:D4" location="TipoServicio!D2" display="TipoServicio!D2" xr:uid="{097575AC-ED50-41A1-91EB-0A69BAD21836}"/>
-    <hyperlink ref="E2" location="Tarifa!B2" display="Tarifa!B2" xr:uid="{39943BEA-51F0-466A-8CDE-95CB9D907002}"/>
-    <hyperlink ref="E3" location="Tarifa!B3" display="Tarifa!B3" xr:uid="{F5628226-F7D0-48FE-BDB1-DEA6F4BEBBE7}"/>
-    <hyperlink ref="E4" location="Tarifa!B4" display="Tarifa!B4" xr:uid="{C04FBF23-2F66-42B0-B5A2-04E63BCF9FB9}"/>
+    <hyperlink ref="E4" location="Agenda!A1" display="Agenda!A1" xr:uid="{4C696339-AFE0-485C-820F-26F0EFF22FA7}"/>
+    <hyperlink ref="E3" location="Agenda!A1" display="Agenda!A1" xr:uid="{EF1EC4DD-89F3-46A4-84D9-F65BB7965752}"/>
+    <hyperlink ref="E2" location="Agenda!A1" display="Agenda!A1" xr:uid="{2C7294DC-03F8-4196-AFD6-D3B7BF175F5F}"/>
+    <hyperlink ref="C3:C4" location="ReservaServicio!B2" display="Pedicura Spa-Masaje Relajante" xr:uid="{7700A8F7-8FED-411F-9EB6-0F17A4A409B3}"/>
+    <hyperlink ref="C2" location="ReservaServicio!B2" display="Pedicura Spa-Masaje Relajante" xr:uid="{833C8E98-6DF2-4EB2-9AC5-38C54F3F00D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.85546875" customWidth="1"/>
-    <col min="5" max="5" width="39.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="39.7109375" customWidth="1"/>
-    <col min="8" max="8" width="58.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="19" t="s">
-        <v>67</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="G1" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="10" t="str">
-        <f>Servicio!B2</f>
-        <v>Pedicura Spa</v>
-      </c>
-      <c r="D2" s="16">
-        <f>Servicio!E2</f>
-        <v>100000</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F2" s="10" t="str">
-        <f>[3]Agenda!E2</f>
-        <v>3:00pm-4:00pm-16/03/2024</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H2" s="18" t="str">
-        <f>+F2&amp;"-"&amp;B2</f>
-        <v>3:00pm-4:00pm-16/03/2024-Martina Corrales</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C3" s="10" t="str">
-        <f>Servicio!B3</f>
-        <v>Tratamiento Facial Antiedad</v>
-      </c>
-      <c r="D3" s="16">
-        <f>Servicio!E3</f>
-        <v>120000</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="10" t="str">
-        <f>[3]Agenda!E3</f>
-        <v>11:00am-12:00pm-28/04/2024</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="18" t="str">
-        <f>+F3&amp;"-"&amp;B3</f>
-        <v>11:00am-12:00pm-28/04/2024-Ramiro Ramirez</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="10" t="str">
-        <f>Servicio!B4</f>
-        <v>Masaje Relajante</v>
-      </c>
-      <c r="D4" s="16">
-        <f>Servicio!E4</f>
-        <v>100000</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="10" t="str">
-        <f>[3]Agenda!E4</f>
-        <v>2:00pm-3:00pm-05/05/2024</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H4" s="18" t="str">
-        <f>+F4&amp;"-"&amp;B4</f>
-        <v>2:00pm-3:00pm-05/05/2024-Lucrecia Gomez</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H10" s="17"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="17"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" location="ReservaServicio!B2" display="Pedicura Spa-Masaje Relajante" xr:uid="{833C8E98-6DF2-4EB2-9AC5-38C54F3F00D0}"/>
-    <hyperlink ref="C3:C4" location="ReservaServicio!B2" display="Pedicura Spa-Masaje Relajante" xr:uid="{7700A8F7-8FED-411F-9EB6-0F17A4A409B3}"/>
-    <hyperlink ref="F2" location="Agenda!A1" display="Agenda!A1" xr:uid="{2C7294DC-03F8-4196-AFD6-D3B7BF175F5F}"/>
-    <hyperlink ref="F3" location="Agenda!A1" display="Agenda!A1" xr:uid="{EF1EC4DD-89F3-46A4-84D9-F65BB7965752}"/>
-    <hyperlink ref="F4" location="Agenda!A1" display="Agenda!A1" xr:uid="{4C696339-AFE0-485C-820F-26F0EFF22FA7}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A7505EC-296A-4FCE-9C22-CF43D5B53206}">
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1644,7 +1694,7 @@
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="27.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1676,7 +1726,7 @@
         <v>1234567890</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E2" s="5" t="str">
         <f>C2&amp;"-"&amp;D2</f>
@@ -1694,7 +1744,7 @@
         <v>987654321</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="E3" s="5" t="str">
         <f t="shared" ref="E3:E4" si="0">C3&amp;"-"&amp;D3</f>
@@ -1712,7 +1762,7 @@
         <v>39789321</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E4" s="5" t="str">
         <f t="shared" si="0"/>
@@ -1724,22 +1774,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E27757F1-FD83-4C60-A977-3E4A8F875641}">
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H1" sqref="A1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1747,7 +1799,7 @@
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>39</v>
@@ -1765,7 +1817,7 @@
         <v>42</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1786,14 +1838,14 @@
       <c r="E2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="14" t="s">
         <v>44</v>
       </c>
       <c r="G2" s="1">
         <v>54323243</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1814,14 +1866,14 @@
       <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="15" t="s">
+      <c r="F3" s="14" t="s">
         <v>46</v>
       </c>
       <c r="G3" s="1">
         <v>3214321</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1842,18 +1894,18 @@
       <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>48</v>
       </c>
       <c r="G4" s="1">
         <v>5632421</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C14" s="17"/>
+      <c r="C14" s="15"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1868,19 +1920,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AA825D2-AE5A-46D4-813E-0899F209F48B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1892,49 +1945,49 @@
         <v>17</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>18</v>

--- a/SpaOnline/ModeloDominio/Reservas - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Reservas - Muestreo Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7B5A1C7-F65B-40D8-BF1A-CF77D78210E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60678D0A-EF15-4C47-8626-CD5D34327F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="5" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="82">
   <si>
     <t xml:space="preserve">Nombre </t>
   </si>
@@ -312,13 +312,20 @@
   </si>
   <si>
     <t>ReservaNotificada</t>
+  </si>
+  <si>
+    <t>Tarifa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;\ * #,##0.00_-;\-&quot;$&quot;\ * #,##0.00_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +367,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -375,6 +383,14 @@
       <sz val="10"/>
       <color theme="10"/>
       <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -433,14 +449,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -486,17 +503,23 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Hipervínculo 2" xfId="3" xr:uid="{F1EB9979-E75D-48B8-9924-89C7B2F7B563}"/>
     <cellStyle name="Hyperlink" xfId="4" xr:uid="{FBC3B282-5EB2-4AC7-AEEC-E4E89224FB40}"/>
+    <cellStyle name="Moneda" xfId="5" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{F38F93BF-FAF1-461E-940C-62620EAC9258}"/>
   </cellStyles>
@@ -520,20 +543,20 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>744117</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>172119</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>572962</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>48376</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagen 2">
+        <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83D36338-8C0C-9431-768C-AC8F1A5BF614}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BE84C51-B6B7-D943-76C1-A739F12FC971}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -549,8 +572,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="142875"/>
-          <a:ext cx="8364117" cy="4791744"/>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10478962" cy="5382376"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1075,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1470,48 +1493,61 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820898BB-1170-416A-9209-732011E756FB}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" s="23" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" s="22">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C3" s="22">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>51</v>
+      </c>
+      <c r="C4" s="22">
+        <v>100000</v>
       </c>
     </row>
   </sheetData>
@@ -1521,10 +1557,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1534,39 +1570,43 @@
     <col min="3" max="3" width="26.140625" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" style="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.140625" style="18" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.7109375" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="18"/>
+    <col min="6" max="6" width="10.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.42578125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="I1" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="8">
         <v>1</v>
       </c>
@@ -1577,7 +1617,7 @@
         <f>Servicio!B2</f>
         <v>Pedicura Spa</v>
       </c>
-      <c r="D2" s="8" t="str">
+      <c r="D2" s="11" t="str">
         <f>+Sucursal!C2</f>
         <v>Sucursal Rionegro</v>
       </c>
@@ -1585,20 +1625,24 @@
         <f>[3]Agenda!E2</f>
         <v>3:00pm-4:00pm-16/03/2024</v>
       </c>
-      <c r="F2" s="8" t="str">
+      <c r="F2" s="25">
+        <f>+Servicio!C2</f>
+        <v>100000</v>
+      </c>
+      <c r="G2" s="8" t="str">
         <f>+Consentimiento!D2</f>
         <v>True</v>
       </c>
-      <c r="G2" s="8" t="str">
+      <c r="H2" s="8" t="str">
         <f>+Notificaciones!E2</f>
         <v>True</v>
       </c>
-      <c r="H2" s="19" t="str">
+      <c r="I2" s="19" t="str">
         <f>+B2&amp;"-"&amp;C2&amp;"-"&amp;D2&amp;"-"&amp;E2</f>
         <v>Martina Corrales-Pedicura Spa-Sucursal Rionegro-3:00pm-4:00pm-16/03/2024</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>2</v>
       </c>
@@ -1609,7 +1653,7 @@
         <f>Servicio!B3</f>
         <v>Tratamiento Facial Antiedad</v>
       </c>
-      <c r="D3" s="8" t="str">
+      <c r="D3" s="11" t="str">
         <f>+Sucursal!C3</f>
         <v>Sucursal Marinilla</v>
       </c>
@@ -1617,20 +1661,24 @@
         <f>[3]Agenda!E3</f>
         <v>11:00am-12:00pm-28/04/2024</v>
       </c>
-      <c r="F3" s="8" t="str">
+      <c r="F3" s="25">
+        <f>+Servicio!C3</f>
+        <v>120000</v>
+      </c>
+      <c r="G3" s="8" t="str">
         <f>+Consentimiento!D3</f>
         <v>False</v>
       </c>
-      <c r="G3" s="8" t="str">
+      <c r="H3" s="8" t="str">
         <f>+Notificaciones!E2</f>
         <v>True</v>
       </c>
-      <c r="H3" s="19" t="str">
-        <f t="shared" ref="H3:H4" si="0">+B3&amp;"-"&amp;C3&amp;"-"&amp;D3&amp;"-"&amp;E3</f>
+      <c r="I3" s="19" t="str">
+        <f t="shared" ref="I3:I4" si="0">+B3&amp;"-"&amp;C3&amp;"-"&amp;D3&amp;"-"&amp;E3</f>
         <v>Ramiro Ramirez-Tratamiento Facial Antiedad-Sucursal Marinilla-11:00am-12:00pm-28/04/2024</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8">
         <v>3</v>
       </c>
@@ -1641,7 +1689,7 @@
         <f>Servicio!B4</f>
         <v>Masaje Relajante</v>
       </c>
-      <c r="D4" s="8" t="str">
+      <c r="D4" s="11" t="str">
         <f>+Sucursal!C4</f>
         <v>Sucursal El Poblado</v>
       </c>
@@ -1649,23 +1697,30 @@
         <f>[3]Agenda!E4</f>
         <v>2:00pm-3:00pm-05/05/2024</v>
       </c>
-      <c r="F4" s="8" t="str">
+      <c r="F4" s="25">
+        <f>+Servicio!C4</f>
+        <v>100000</v>
+      </c>
+      <c r="G4" s="8" t="str">
         <f>+Consentimiento!D4</f>
         <v>True</v>
       </c>
-      <c r="G4" s="8" t="str">
+      <c r="H4" s="8" t="str">
         <f>+Notificaciones!E2</f>
         <v>True</v>
       </c>
-      <c r="H4" s="19" t="str">
+      <c r="I4" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Lucrecia Gomez-Masaje Relajante-Sucursal El Poblado-2:00pm-3:00pm-05/05/2024</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H10" s="20"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F5" s="24"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="20"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="C14" s="20"/>
     </row>
   </sheetData>
@@ -1676,6 +1731,9 @@
     <hyperlink ref="E2" location="Agenda!A1" display="Agenda!A1" xr:uid="{2C7294DC-03F8-4196-AFD6-D3B7BF175F5F}"/>
     <hyperlink ref="C3:C4" location="ReservaServicio!B2" display="Pedicura Spa-Masaje Relajante" xr:uid="{7700A8F7-8FED-411F-9EB6-0F17A4A409B3}"/>
     <hyperlink ref="C2" location="ReservaServicio!B2" display="Pedicura Spa-Masaje Relajante" xr:uid="{833C8E98-6DF2-4EB2-9AC5-38C54F3F00D0}"/>
+    <hyperlink ref="D2" location="Sucursal!B2" display="Sucursal!B2" xr:uid="{3C1E390D-BEDE-4C86-97D5-5BEB4941623B}"/>
+    <hyperlink ref="D3" location="Reserva!B3" display="Reserva!B3" xr:uid="{6014C165-7914-4821-8033-F9607765ED24}"/>
+    <hyperlink ref="D4" location="Reserva!B4" display="Reserva!B4" xr:uid="{478A3A76-D624-4DEF-8B42-2ED4651D2311}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SpaOnline/ModeloDominio/Reservas - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Reservas - Muestreo Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60678D0A-EF15-4C47-8626-CD5D34327F4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636A4422-2F8B-45FD-849B-152F0027D7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -658,9 +658,9 @@
       <sheetName val="TipoIdentificacion"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="B2" t="str">
@@ -1098,8 +1098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D8" sqref="A2:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1266,7 +1266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55381C2-B610-4E42-A783-641DEDCF2EA3}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>

--- a/SpaOnline/ModeloDominio/Reservas - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Reservas - Muestreo Datos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\ModeloDominio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{636A4422-2F8B-45FD-849B-152F0027D7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB1ECE6-B9C7-44AB-9A3E-A9D11C24A8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="5" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -658,9 +658,9 @@
       <sheetName val="TipoIdentificacion"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
       <sheetData sheetId="3">
         <row r="2">
           <cell r="B2" t="str">
@@ -1098,7 +1098,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA198BEE-AB41-4447-8B76-5672FB9C01F4}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -1266,7 +1266,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55381C2-B610-4E42-A783-641DEDCF2EA3}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1559,7 +1559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{952BDDC5-1485-4BC4-A31B-18839936F54D}">
   <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>

--- a/SpaOnline/ModeloDominio/Reservas - Muestreo Datos.xlsx
+++ b/SpaOnline/ModeloDominio/Reservas - Muestreo Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\ModeloDominio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB1ECE6-B9C7-44AB-9A3E-A9D11C24A8E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25DD4E21-4A92-4AA3-BB08-7DE429EBA6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="5" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="5" xr2:uid="{9AD29915-CB49-430C-A10E-F60FF2C9A65A}"/>
   </bookViews>
   <sheets>
     <sheet name="Modelo de Dominio Anemico" sheetId="1" r:id="rId1"/>
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="A2:D8"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
